--- a/METR Parameters by Country.xlsx
+++ b/METR Parameters by Country.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb305167\OneDrive - WBG\python_latest\METR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AD9BC0-3361-4A64-8CC5-B4FB79124E41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8852023C-081C-4CD2-A716-AD3C985D9AA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8640" yWindow="405" windowWidth="16365" windowHeight="13845" xr2:uid="{62D246CE-D1E4-4155-BCE2-507AA1B028A6}"/>
+    <workbookView xWindow="1395" yWindow="540" windowWidth="11160" windowHeight="12480" xr2:uid="{62D246CE-D1E4-4155-BCE2-507AA1B028A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="151">
   <si>
     <t>Inflation</t>
   </si>
@@ -485,6 +485,9 @@
   </si>
   <si>
     <t>domestic_pit_interest</t>
+  </si>
+  <si>
+    <t>Moldova</t>
   </si>
 </sst>
 </file>
@@ -583,12 +586,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -612,6 +609,12 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -928,25 +931,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8BCB0FD-5A83-458D-8683-71D546956708}">
-  <dimension ref="A1:AB95"/>
+  <dimension ref="A1:AB96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="28"/>
-    <col min="3" max="3" width="9.5703125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="26"/>
+    <col min="3" max="3" width="9.5703125" style="26" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" customWidth="1"/>
     <col min="5" max="7" width="21.7109375" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="20" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -954,10 +957,10 @@
       <c r="A1" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="25" t="s">
         <v>123</v>
       </c>
       <c r="D1" s="7" t="s">
@@ -981,7 +984,7 @@
       <c r="J1" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="19" t="s">
         <v>148</v>
       </c>
       <c r="L1" s="6" t="s">
@@ -1040,10 +1043,10 @@
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="26">
         <v>0.3</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="26">
         <v>0.3</v>
       </c>
       <c r="D2" s="8">
@@ -1067,7 +1070,7 @@
       <c r="J2" s="8">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="K2" s="22">
+      <c r="K2" s="20">
         <v>0</v>
       </c>
       <c r="L2">
@@ -1079,46 +1082,46 @@
       <c r="N2">
         <v>0</v>
       </c>
-      <c r="O2" s="25">
+      <c r="O2" s="23">
         <v>0.01</v>
       </c>
-      <c r="P2" s="19">
+      <c r="P2" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q2" s="19">
-        <v>0</v>
-      </c>
-      <c r="R2" s="19">
-        <v>0</v>
-      </c>
-      <c r="S2" s="19">
+      <c r="Q2" s="17">
+        <v>0</v>
+      </c>
+      <c r="R2" s="17">
+        <v>0</v>
+      </c>
+      <c r="S2" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T2" s="19">
+      <c r="T2" s="17">
         <v>0.09</v>
       </c>
-      <c r="U2" s="19">
-        <v>0</v>
-      </c>
-      <c r="V2" s="19">
-        <v>0</v>
-      </c>
-      <c r="W2" s="19">
-        <v>0</v>
-      </c>
-      <c r="X2" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="26">
+      <c r="U2" s="17">
+        <v>0</v>
+      </c>
+      <c r="V2" s="17">
+        <v>0</v>
+      </c>
+      <c r="W2" s="17">
+        <v>0</v>
+      </c>
+      <c r="X2" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z2" s="26">
+      <c r="Z2" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA2" s="26">
+      <c r="AA2" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB2" s="26">
+      <c r="AB2" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -1126,10 +1129,10 @@
       <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="26">
         <v>0.21</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="26">
         <v>0.25</v>
       </c>
       <c r="D3" s="8">
@@ -1153,7 +1156,7 @@
       <c r="J3" s="8">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="K3" s="22">
+      <c r="K3" s="20">
         <v>0</v>
       </c>
       <c r="L3">
@@ -1165,46 +1168,46 @@
       <c r="N3">
         <v>0</v>
       </c>
-      <c r="O3" s="25">
+      <c r="O3" s="23">
         <v>0.01</v>
       </c>
-      <c r="P3" s="19">
+      <c r="P3" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q3" s="19">
-        <v>0</v>
-      </c>
-      <c r="R3" s="19">
-        <v>0</v>
-      </c>
-      <c r="S3" s="19">
+      <c r="Q3" s="17">
+        <v>0</v>
+      </c>
+      <c r="R3" s="17">
+        <v>0</v>
+      </c>
+      <c r="S3" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T3" s="19">
+      <c r="T3" s="17">
         <v>0.09</v>
       </c>
-      <c r="U3" s="19">
-        <v>0</v>
-      </c>
-      <c r="V3" s="19">
-        <v>0</v>
-      </c>
-      <c r="W3" s="19">
-        <v>0</v>
-      </c>
-      <c r="X3" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="26">
+      <c r="U3" s="17">
+        <v>0</v>
+      </c>
+      <c r="V3" s="17">
+        <v>0</v>
+      </c>
+      <c r="W3" s="17">
+        <v>0</v>
+      </c>
+      <c r="X3" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z3" s="26">
+      <c r="Z3" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA3" s="26">
+      <c r="AA3" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB3" s="26">
+      <c r="AB3" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -1212,10 +1215,10 @@
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="26">
         <v>0.255</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="26">
         <v>0.34</v>
       </c>
       <c r="D4" s="8">
@@ -1239,7 +1242,7 @@
       <c r="J4" s="8">
         <v>0</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="20">
         <v>0</v>
       </c>
       <c r="L4">
@@ -1251,46 +1254,46 @@
       <c r="N4">
         <v>0</v>
       </c>
-      <c r="O4" s="25">
+      <c r="O4" s="23">
         <v>0.01</v>
       </c>
-      <c r="P4" s="19">
+      <c r="P4" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q4" s="19">
-        <v>0</v>
-      </c>
-      <c r="R4" s="19">
-        <v>0</v>
-      </c>
-      <c r="S4" s="19">
+      <c r="Q4" s="17">
+        <v>0</v>
+      </c>
+      <c r="R4" s="17">
+        <v>0</v>
+      </c>
+      <c r="S4" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T4" s="19">
+      <c r="T4" s="17">
         <v>0.09</v>
       </c>
-      <c r="U4" s="19">
-        <v>0</v>
-      </c>
-      <c r="V4" s="19">
-        <v>0</v>
-      </c>
-      <c r="W4" s="19">
-        <v>0</v>
-      </c>
-      <c r="X4" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="26">
+      <c r="U4" s="17">
+        <v>0</v>
+      </c>
+      <c r="V4" s="17">
+        <v>0</v>
+      </c>
+      <c r="W4" s="17">
+        <v>0</v>
+      </c>
+      <c r="X4" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z4" s="26">
+      <c r="Z4" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA4" s="26">
+      <c r="AA4" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB4" s="26">
+      <c r="AB4" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -1298,10 +1301,10 @@
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="26">
         <v>0.26200000000000001</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="26">
         <v>0.29399999999999998</v>
       </c>
       <c r="D5" s="8">
@@ -1325,7 +1328,7 @@
       <c r="J5" s="8">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="20">
         <v>0</v>
       </c>
       <c r="L5">
@@ -1337,46 +1340,46 @@
       <c r="N5">
         <v>0</v>
       </c>
-      <c r="O5" s="25">
+      <c r="O5" s="23">
         <v>0.01</v>
       </c>
-      <c r="P5" s="19">
+      <c r="P5" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q5" s="19">
-        <v>0</v>
-      </c>
-      <c r="R5" s="19">
-        <v>0</v>
-      </c>
-      <c r="S5" s="19">
+      <c r="Q5" s="17">
+        <v>0</v>
+      </c>
+      <c r="R5" s="17">
+        <v>0</v>
+      </c>
+      <c r="S5" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T5" s="19">
+      <c r="T5" s="17">
         <v>0.09</v>
       </c>
-      <c r="U5" s="19">
-        <v>0</v>
-      </c>
-      <c r="V5" s="19">
-        <v>0</v>
-      </c>
-      <c r="W5" s="19">
-        <v>0</v>
-      </c>
-      <c r="X5" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="26">
+      <c r="U5" s="17">
+        <v>0</v>
+      </c>
+      <c r="V5" s="17">
+        <v>0</v>
+      </c>
+      <c r="W5" s="17">
+        <v>0</v>
+      </c>
+      <c r="X5" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z5" s="26">
+      <c r="Z5" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA5" s="26">
+      <c r="AA5" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB5" s="26">
+      <c r="AB5" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -1384,10 +1387,10 @@
       <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="26">
         <v>0.27</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="26">
         <v>0.17</v>
       </c>
       <c r="D6" s="8">
@@ -1411,7 +1414,7 @@
       <c r="J6" s="8">
         <v>0</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="20">
         <v>1</v>
       </c>
       <c r="L6">
@@ -1423,46 +1426,46 @@
       <c r="N6">
         <v>0</v>
       </c>
-      <c r="O6" s="25">
+      <c r="O6" s="23">
         <v>0.01</v>
       </c>
-      <c r="P6" s="19">
+      <c r="P6" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q6" s="19">
-        <v>0</v>
-      </c>
-      <c r="R6" s="19">
-        <v>0</v>
-      </c>
-      <c r="S6" s="19">
+      <c r="Q6" s="17">
+        <v>0</v>
+      </c>
+      <c r="R6" s="17">
+        <v>0</v>
+      </c>
+      <c r="S6" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T6" s="19">
+      <c r="T6" s="17">
         <v>0.09</v>
       </c>
-      <c r="U6" s="19">
-        <v>0</v>
-      </c>
-      <c r="V6" s="19">
-        <v>0</v>
-      </c>
-      <c r="W6" s="19">
-        <v>0</v>
-      </c>
-      <c r="X6" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="26">
+      <c r="U6" s="17">
+        <v>0</v>
+      </c>
+      <c r="V6" s="17">
+        <v>0</v>
+      </c>
+      <c r="W6" s="17">
+        <v>0</v>
+      </c>
+      <c r="X6" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z6" s="26">
+      <c r="Z6" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA6" s="26">
+      <c r="AA6" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB6" s="26">
+      <c r="AB6" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -1470,10 +1473,10 @@
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="26">
         <v>0.19</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="26">
         <v>0.19</v>
       </c>
       <c r="D7" s="8">
@@ -1497,7 +1500,7 @@
       <c r="J7" s="8">
         <v>0.04</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="20">
         <v>0</v>
       </c>
       <c r="L7">
@@ -1509,46 +1512,46 @@
       <c r="N7">
         <v>0</v>
       </c>
-      <c r="O7" s="25">
+      <c r="O7" s="23">
         <v>0.01</v>
       </c>
-      <c r="P7" s="19">
+      <c r="P7" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q7" s="19">
-        <v>0</v>
-      </c>
-      <c r="R7" s="19">
-        <v>0</v>
-      </c>
-      <c r="S7" s="19">
+      <c r="Q7" s="17">
+        <v>0</v>
+      </c>
+      <c r="R7" s="17">
+        <v>0</v>
+      </c>
+      <c r="S7" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T7" s="19">
+      <c r="T7" s="17">
         <v>0.09</v>
       </c>
-      <c r="U7" s="19">
-        <v>0</v>
-      </c>
-      <c r="V7" s="19">
-        <v>0</v>
-      </c>
-      <c r="W7" s="19">
-        <v>0</v>
-      </c>
-      <c r="X7" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="26">
+      <c r="U7" s="17">
+        <v>0</v>
+      </c>
+      <c r="V7" s="17">
+        <v>0</v>
+      </c>
+      <c r="W7" s="17">
+        <v>0</v>
+      </c>
+      <c r="X7" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z7" s="26">
+      <c r="Z7" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA7" s="26">
+      <c r="AA7" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB7" s="26">
+      <c r="AB7" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -1556,10 +1559,10 @@
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="26">
         <v>0.22</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="26">
         <v>0.25</v>
       </c>
       <c r="D8" s="8">
@@ -1583,7 +1586,7 @@
       <c r="J8" s="8">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="20">
         <v>0</v>
       </c>
       <c r="L8">
@@ -1595,46 +1598,46 @@
       <c r="N8">
         <v>0</v>
       </c>
-      <c r="O8" s="25">
+      <c r="O8" s="23">
         <v>0.01</v>
       </c>
-      <c r="P8" s="19">
+      <c r="P8" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q8" s="19">
-        <v>0</v>
-      </c>
-      <c r="R8" s="19">
-        <v>0</v>
-      </c>
-      <c r="S8" s="19">
+      <c r="Q8" s="17">
+        <v>0</v>
+      </c>
+      <c r="R8" s="17">
+        <v>0</v>
+      </c>
+      <c r="S8" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T8" s="19">
+      <c r="T8" s="17">
         <v>0.09</v>
       </c>
-      <c r="U8" s="19">
-        <v>0</v>
-      </c>
-      <c r="V8" s="19">
-        <v>0</v>
-      </c>
-      <c r="W8" s="19">
-        <v>0</v>
-      </c>
-      <c r="X8" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="26">
+      <c r="U8" s="17">
+        <v>0</v>
+      </c>
+      <c r="V8" s="17">
+        <v>0</v>
+      </c>
+      <c r="W8" s="17">
+        <v>0</v>
+      </c>
+      <c r="X8" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z8" s="26">
+      <c r="Z8" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA8" s="26">
+      <c r="AA8" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB8" s="26">
+      <c r="AB8" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -1642,10 +1645,10 @@
       <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="26">
         <v>0.2</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="26">
         <v>0.21</v>
       </c>
       <c r="D9" s="8">
@@ -1669,7 +1672,7 @@
       <c r="J9" s="8">
         <v>0</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="20">
         <v>0</v>
       </c>
       <c r="L9">
@@ -1681,46 +1684,46 @@
       <c r="N9">
         <v>0</v>
       </c>
-      <c r="O9" s="25">
+      <c r="O9" s="23">
         <v>0.01</v>
       </c>
-      <c r="P9" s="19">
+      <c r="P9" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q9" s="19">
-        <v>0</v>
-      </c>
-      <c r="R9" s="19">
-        <v>0</v>
-      </c>
-      <c r="S9" s="19">
+      <c r="Q9" s="17">
+        <v>0</v>
+      </c>
+      <c r="R9" s="17">
+        <v>0</v>
+      </c>
+      <c r="S9" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T9" s="19">
+      <c r="T9" s="17">
         <v>0.09</v>
       </c>
-      <c r="U9" s="19">
-        <v>0</v>
-      </c>
-      <c r="V9" s="19">
-        <v>0</v>
-      </c>
-      <c r="W9" s="19">
-        <v>0</v>
-      </c>
-      <c r="X9" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="26">
+      <c r="U9" s="17">
+        <v>0</v>
+      </c>
+      <c r="V9" s="17">
+        <v>0</v>
+      </c>
+      <c r="W9" s="17">
+        <v>0</v>
+      </c>
+      <c r="X9" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z9" s="26">
+      <c r="Z9" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA9" s="26">
+      <c r="AA9" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB9" s="26">
+      <c r="AB9" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -1728,10 +1731,10 @@
       <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="26">
         <v>0.2</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="26">
         <v>0.26</v>
       </c>
       <c r="D10" s="8">
@@ -1755,7 +1758,7 @@
       <c r="J10" s="8">
         <v>0.04</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="20">
         <v>1</v>
       </c>
       <c r="L10">
@@ -1767,46 +1770,46 @@
       <c r="N10">
         <v>0</v>
       </c>
-      <c r="O10" s="25">
+      <c r="O10" s="23">
         <v>0.01</v>
       </c>
-      <c r="P10" s="19">
+      <c r="P10" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q10" s="19">
-        <v>0</v>
-      </c>
-      <c r="R10" s="19">
-        <v>0</v>
-      </c>
-      <c r="S10" s="19">
+      <c r="Q10" s="17">
+        <v>0</v>
+      </c>
+      <c r="R10" s="17">
+        <v>0</v>
+      </c>
+      <c r="S10" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T10" s="19">
+      <c r="T10" s="17">
         <v>0.09</v>
       </c>
-      <c r="U10" s="19">
-        <v>0</v>
-      </c>
-      <c r="V10" s="19">
-        <v>0</v>
-      </c>
-      <c r="W10" s="19">
-        <v>0</v>
-      </c>
-      <c r="X10" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="26">
+      <c r="U10" s="17">
+        <v>0</v>
+      </c>
+      <c r="V10" s="17">
+        <v>0</v>
+      </c>
+      <c r="W10" s="17">
+        <v>0</v>
+      </c>
+      <c r="X10" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z10" s="26">
+      <c r="Z10" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA10" s="26">
+      <c r="AA10" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB10" s="26">
+      <c r="AB10" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -1814,10 +1817,10 @@
       <c r="A11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="26">
         <v>0.25800000000000001</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="26">
         <v>0.34399999999999997</v>
       </c>
       <c r="D11" s="8">
@@ -1841,7 +1844,7 @@
       <c r="J11" s="8">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K11" s="20">
         <v>1</v>
       </c>
       <c r="L11">
@@ -1853,46 +1856,46 @@
       <c r="N11">
         <v>0</v>
       </c>
-      <c r="O11" s="25">
+      <c r="O11" s="23">
         <v>0.01</v>
       </c>
-      <c r="P11" s="19">
+      <c r="P11" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q11" s="19">
-        <v>0</v>
-      </c>
-      <c r="R11" s="19">
-        <v>0</v>
-      </c>
-      <c r="S11" s="19">
+      <c r="Q11" s="17">
+        <v>0</v>
+      </c>
+      <c r="R11" s="17">
+        <v>0</v>
+      </c>
+      <c r="S11" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T11" s="19">
+      <c r="T11" s="17">
         <v>0.09</v>
       </c>
-      <c r="U11" s="19">
-        <v>0</v>
-      </c>
-      <c r="V11" s="19">
-        <v>0</v>
-      </c>
-      <c r="W11" s="19">
-        <v>0</v>
-      </c>
-      <c r="X11" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="26">
+      <c r="U11" s="17">
+        <v>0</v>
+      </c>
+      <c r="V11" s="17">
+        <v>0</v>
+      </c>
+      <c r="W11" s="17">
+        <v>0</v>
+      </c>
+      <c r="X11" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z11" s="26">
+      <c r="Z11" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA11" s="26">
+      <c r="AA11" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB11" s="26">
+      <c r="AB11" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -1900,10 +1903,10 @@
       <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="26">
         <v>0.3</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="26">
         <v>0.30199999999999999</v>
       </c>
       <c r="D12" s="8">
@@ -1927,7 +1930,7 @@
       <c r="J12" s="8">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="20">
         <v>0</v>
       </c>
       <c r="L12">
@@ -1939,46 +1942,46 @@
       <c r="N12">
         <v>0</v>
       </c>
-      <c r="O12" s="25">
+      <c r="O12" s="23">
         <v>0.01</v>
       </c>
-      <c r="P12" s="19">
+      <c r="P12" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q12" s="19">
-        <v>0</v>
-      </c>
-      <c r="R12" s="19">
-        <v>0</v>
-      </c>
-      <c r="S12" s="19">
+      <c r="Q12" s="17">
+        <v>0</v>
+      </c>
+      <c r="R12" s="17">
+        <v>0</v>
+      </c>
+      <c r="S12" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T12" s="19">
+      <c r="T12" s="17">
         <v>0.09</v>
       </c>
-      <c r="U12" s="19">
-        <v>0</v>
-      </c>
-      <c r="V12" s="19">
-        <v>0</v>
-      </c>
-      <c r="W12" s="19">
-        <v>0</v>
-      </c>
-      <c r="X12" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="26">
+      <c r="U12" s="17">
+        <v>0</v>
+      </c>
+      <c r="V12" s="17">
+        <v>0</v>
+      </c>
+      <c r="W12" s="17">
+        <v>0</v>
+      </c>
+      <c r="X12" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z12" s="26">
+      <c r="Z12" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA12" s="26">
+      <c r="AA12" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB12" s="26">
+      <c r="AB12" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -1986,10 +1989,10 @@
       <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="26">
         <v>0.24</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="26">
         <v>0.24</v>
       </c>
       <c r="D13" s="10">
@@ -2013,7 +2016,7 @@
       <c r="J13" s="8">
         <v>0</v>
       </c>
-      <c r="K13" s="22">
+      <c r="K13" s="20">
         <v>1</v>
       </c>
       <c r="L13">
@@ -2025,46 +2028,46 @@
       <c r="N13">
         <v>0</v>
       </c>
-      <c r="O13" s="25">
+      <c r="O13" s="23">
         <v>0.01</v>
       </c>
-      <c r="P13" s="19">
+      <c r="P13" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q13" s="19">
-        <v>0</v>
-      </c>
-      <c r="R13" s="19">
-        <v>0</v>
-      </c>
-      <c r="S13" s="19">
+      <c r="Q13" s="17">
+        <v>0</v>
+      </c>
+      <c r="R13" s="17">
+        <v>0</v>
+      </c>
+      <c r="S13" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T13" s="19">
+      <c r="T13" s="17">
         <v>0.09</v>
       </c>
-      <c r="U13" s="19">
-        <v>0</v>
-      </c>
-      <c r="V13" s="19">
-        <v>0</v>
-      </c>
-      <c r="W13" s="19">
-        <v>0</v>
-      </c>
-      <c r="X13" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="26">
+      <c r="U13" s="17">
+        <v>0</v>
+      </c>
+      <c r="V13" s="17">
+        <v>0</v>
+      </c>
+      <c r="W13" s="17">
+        <v>0</v>
+      </c>
+      <c r="X13" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z13" s="26">
+      <c r="Z13" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA13" s="26">
+      <c r="AA13" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB13" s="26">
+      <c r="AB13" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -2072,10 +2075,10 @@
       <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="26">
         <v>0.09</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="26">
         <v>0.19</v>
       </c>
       <c r="D14" s="8">
@@ -2099,7 +2102,7 @@
       <c r="J14" s="8">
         <v>0</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="20">
         <v>0</v>
       </c>
       <c r="L14">
@@ -2111,46 +2114,46 @@
       <c r="N14">
         <v>0</v>
       </c>
-      <c r="O14" s="25">
+      <c r="O14" s="23">
         <v>0.01</v>
       </c>
-      <c r="P14" s="19">
+      <c r="P14" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q14" s="19">
-        <v>0</v>
-      </c>
-      <c r="R14" s="19">
-        <v>0</v>
-      </c>
-      <c r="S14" s="19">
+      <c r="Q14" s="17">
+        <v>0</v>
+      </c>
+      <c r="R14" s="17">
+        <v>0</v>
+      </c>
+      <c r="S14" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T14" s="19">
+      <c r="T14" s="17">
         <v>0.09</v>
       </c>
-      <c r="U14" s="19">
-        <v>0</v>
-      </c>
-      <c r="V14" s="19">
-        <v>0</v>
-      </c>
-      <c r="W14" s="19">
-        <v>0</v>
-      </c>
-      <c r="X14" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="26">
+      <c r="U14" s="17">
+        <v>0</v>
+      </c>
+      <c r="V14" s="17">
+        <v>0</v>
+      </c>
+      <c r="W14" s="17">
+        <v>0</v>
+      </c>
+      <c r="X14" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z14" s="26">
+      <c r="Z14" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA14" s="26">
+      <c r="AA14" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB14" s="26">
+      <c r="AB14" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -2158,10 +2161,10 @@
       <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="26">
         <v>0.2</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="26">
         <v>0.18</v>
       </c>
       <c r="D15" s="8">
@@ -2185,7 +2188,7 @@
       <c r="J15" s="8">
         <v>1.6E-2</v>
       </c>
-      <c r="K15" s="22">
+      <c r="K15" s="20">
         <v>0</v>
       </c>
       <c r="L15">
@@ -2197,46 +2200,46 @@
       <c r="N15">
         <v>0</v>
       </c>
-      <c r="O15" s="25">
+      <c r="O15" s="23">
         <v>0.01</v>
       </c>
-      <c r="P15" s="19">
+      <c r="P15" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q15" s="19">
-        <v>0</v>
-      </c>
-      <c r="R15" s="19">
-        <v>0</v>
-      </c>
-      <c r="S15" s="19">
+      <c r="Q15" s="17">
+        <v>0</v>
+      </c>
+      <c r="R15" s="17">
+        <v>0</v>
+      </c>
+      <c r="S15" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T15" s="19">
+      <c r="T15" s="17">
         <v>0.09</v>
       </c>
-      <c r="U15" s="19">
-        <v>0</v>
-      </c>
-      <c r="V15" s="19">
-        <v>0</v>
-      </c>
-      <c r="W15" s="19">
-        <v>0</v>
-      </c>
-      <c r="X15" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="26">
+      <c r="U15" s="17">
+        <v>0</v>
+      </c>
+      <c r="V15" s="17">
+        <v>0</v>
+      </c>
+      <c r="W15" s="17">
+        <v>0</v>
+      </c>
+      <c r="X15" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z15" s="26">
+      <c r="Z15" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA15" s="26">
+      <c r="AA15" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB15" s="26">
+      <c r="AB15" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -2244,10 +2247,10 @@
       <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="26">
         <v>0.125</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="26">
         <v>0.125</v>
       </c>
       <c r="D16" s="8">
@@ -2271,7 +2274,7 @@
       <c r="J16" s="8">
         <v>0.06</v>
       </c>
-      <c r="K16" s="22">
+      <c r="K16" s="20">
         <v>1</v>
       </c>
       <c r="L16">
@@ -2283,46 +2286,46 @@
       <c r="N16">
         <v>0</v>
       </c>
-      <c r="O16" s="25">
+      <c r="O16" s="23">
         <v>0.01</v>
       </c>
-      <c r="P16" s="19">
+      <c r="P16" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q16" s="19">
-        <v>0</v>
-      </c>
-      <c r="R16" s="19">
-        <v>0</v>
-      </c>
-      <c r="S16" s="19">
+      <c r="Q16" s="17">
+        <v>0</v>
+      </c>
+      <c r="R16" s="17">
+        <v>0</v>
+      </c>
+      <c r="S16" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T16" s="19">
+      <c r="T16" s="17">
         <v>0.09</v>
       </c>
-      <c r="U16" s="19">
-        <v>0</v>
-      </c>
-      <c r="V16" s="19">
-        <v>0</v>
-      </c>
-      <c r="W16" s="19">
-        <v>0</v>
-      </c>
-      <c r="X16" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="26">
+      <c r="U16" s="17">
+        <v>0</v>
+      </c>
+      <c r="V16" s="17">
+        <v>0</v>
+      </c>
+      <c r="W16" s="17">
+        <v>0</v>
+      </c>
+      <c r="X16" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z16" s="26">
+      <c r="Z16" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA16" s="26">
+      <c r="AA16" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB16" s="26">
+      <c r="AB16" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -2330,10 +2333,10 @@
       <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17" s="26">
         <v>0.23</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="26">
         <v>0.25</v>
       </c>
       <c r="D17" s="8">
@@ -2357,7 +2360,7 @@
       <c r="J17" s="8">
         <v>0.1</v>
       </c>
-      <c r="K17" s="22">
+      <c r="K17" s="20">
         <v>0</v>
       </c>
       <c r="L17">
@@ -2369,46 +2372,46 @@
       <c r="N17">
         <v>0</v>
       </c>
-      <c r="O17" s="25">
+      <c r="O17" s="23">
         <v>0.01</v>
       </c>
-      <c r="P17" s="19">
+      <c r="P17" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q17" s="19">
-        <v>0</v>
-      </c>
-      <c r="R17" s="19">
-        <v>0</v>
-      </c>
-      <c r="S17" s="19">
+      <c r="Q17" s="17">
+        <v>0</v>
+      </c>
+      <c r="R17" s="17">
+        <v>0</v>
+      </c>
+      <c r="S17" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T17" s="19">
+      <c r="T17" s="17">
         <v>0.09</v>
       </c>
-      <c r="U17" s="19">
-        <v>0</v>
-      </c>
-      <c r="V17" s="19">
-        <v>0</v>
-      </c>
-      <c r="W17" s="19">
-        <v>0</v>
-      </c>
-      <c r="X17" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="26">
+      <c r="U17" s="17">
+        <v>0</v>
+      </c>
+      <c r="V17" s="17">
+        <v>0</v>
+      </c>
+      <c r="W17" s="17">
+        <v>0</v>
+      </c>
+      <c r="X17" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z17" s="26">
+      <c r="Z17" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA17" s="26">
+      <c r="AA17" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB17" s="26">
+      <c r="AB17" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -2416,10 +2419,10 @@
       <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B18" s="26">
         <v>0.27899999999999997</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="26">
         <v>0.313</v>
       </c>
       <c r="D18" s="8">
@@ -2443,7 +2446,7 @@
       <c r="J18" s="8">
         <v>0</v>
       </c>
-      <c r="K18" s="22">
+      <c r="K18" s="20">
         <v>1</v>
       </c>
       <c r="L18">
@@ -2455,46 +2458,46 @@
       <c r="N18">
         <v>0</v>
       </c>
-      <c r="O18" s="25">
+      <c r="O18" s="23">
         <v>0.01</v>
       </c>
-      <c r="P18" s="19">
+      <c r="P18" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q18" s="19">
-        <v>0</v>
-      </c>
-      <c r="R18" s="19">
-        <v>0</v>
-      </c>
-      <c r="S18" s="19">
+      <c r="Q18" s="17">
+        <v>0</v>
+      </c>
+      <c r="R18" s="17">
+        <v>0</v>
+      </c>
+      <c r="S18" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T18" s="19">
+      <c r="T18" s="17">
         <v>0.09</v>
       </c>
-      <c r="U18" s="19">
-        <v>0</v>
-      </c>
-      <c r="V18" s="19">
-        <v>0</v>
-      </c>
-      <c r="W18" s="19">
-        <v>0</v>
-      </c>
-      <c r="X18" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="26">
+      <c r="U18" s="17">
+        <v>0</v>
+      </c>
+      <c r="V18" s="17">
+        <v>0</v>
+      </c>
+      <c r="W18" s="17">
+        <v>0</v>
+      </c>
+      <c r="X18" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z18" s="26">
+      <c r="Z18" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA18" s="26">
+      <c r="AA18" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB18" s="26">
+      <c r="AB18" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -2502,10 +2505,10 @@
       <c r="A19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="26">
         <v>0.30599999999999999</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="26">
         <v>0.39500000000000002</v>
       </c>
       <c r="D19" s="8">
@@ -2529,7 +2532,7 @@
       <c r="J19" s="3">
         <v>0</v>
       </c>
-      <c r="K19" s="22">
+      <c r="K19" s="20">
         <v>0</v>
       </c>
       <c r="L19">
@@ -2541,46 +2544,46 @@
       <c r="N19">
         <v>0</v>
       </c>
-      <c r="O19" s="25">
+      <c r="O19" s="23">
         <v>0.01</v>
       </c>
-      <c r="P19" s="19">
+      <c r="P19" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q19" s="19">
-        <v>0</v>
-      </c>
-      <c r="R19" s="19">
-        <v>0</v>
-      </c>
-      <c r="S19" s="19">
+      <c r="Q19" s="17">
+        <v>0</v>
+      </c>
+      <c r="R19" s="17">
+        <v>0</v>
+      </c>
+      <c r="S19" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T19" s="19">
+      <c r="T19" s="17">
         <v>0.09</v>
       </c>
-      <c r="U19" s="19">
-        <v>0</v>
-      </c>
-      <c r="V19" s="19">
-        <v>0</v>
-      </c>
-      <c r="W19" s="19">
-        <v>0</v>
-      </c>
-      <c r="X19" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="26">
+      <c r="U19" s="17">
+        <v>0</v>
+      </c>
+      <c r="V19" s="17">
+        <v>0</v>
+      </c>
+      <c r="W19" s="17">
+        <v>0</v>
+      </c>
+      <c r="X19" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z19" s="26">
+      <c r="Z19" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA19" s="26">
+      <c r="AA19" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB19" s="26">
+      <c r="AB19" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -2588,10 +2591,10 @@
       <c r="A20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="28">
+      <c r="B20" s="26">
         <v>0.27500000000000002</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="26">
         <v>0.24199999999999999</v>
       </c>
       <c r="D20" s="8">
@@ -2615,7 +2618,7 @@
       <c r="J20" s="8">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="K20" s="22">
+      <c r="K20" s="20">
         <v>1</v>
       </c>
       <c r="L20">
@@ -2627,46 +2630,46 @@
       <c r="N20">
         <v>0</v>
       </c>
-      <c r="O20" s="25">
+      <c r="O20" s="23">
         <v>0.01</v>
       </c>
-      <c r="P20" s="19">
+      <c r="P20" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q20" s="19">
-        <v>0</v>
-      </c>
-      <c r="R20" s="19">
-        <v>0</v>
-      </c>
-      <c r="S20" s="19">
+      <c r="Q20" s="17">
+        <v>0</v>
+      </c>
+      <c r="R20" s="17">
+        <v>0</v>
+      </c>
+      <c r="S20" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T20" s="19">
+      <c r="T20" s="17">
         <v>0.09</v>
       </c>
-      <c r="U20" s="19">
-        <v>0</v>
-      </c>
-      <c r="V20" s="19">
-        <v>0</v>
-      </c>
-      <c r="W20" s="19">
-        <v>0</v>
-      </c>
-      <c r="X20" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="26">
+      <c r="U20" s="17">
+        <v>0</v>
+      </c>
+      <c r="V20" s="17">
+        <v>0</v>
+      </c>
+      <c r="W20" s="17">
+        <v>0</v>
+      </c>
+      <c r="X20" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z20" s="26">
+      <c r="Z20" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA20" s="26">
+      <c r="AA20" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB20" s="26">
+      <c r="AB20" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -2674,10 +2677,10 @@
       <c r="A21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="28">
+      <c r="B21" s="26">
         <v>0.249</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="26">
         <v>0.28600000000000003</v>
       </c>
       <c r="D21" s="8">
@@ -2701,7 +2704,7 @@
       <c r="J21" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K21" s="22">
+      <c r="K21" s="20">
         <v>0</v>
       </c>
       <c r="L21">
@@ -2713,46 +2716,46 @@
       <c r="N21">
         <v>0</v>
       </c>
-      <c r="O21" s="25">
+      <c r="O21" s="23">
         <v>0.01</v>
       </c>
-      <c r="P21" s="19">
+      <c r="P21" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q21" s="19">
-        <v>0</v>
-      </c>
-      <c r="R21" s="19">
-        <v>0</v>
-      </c>
-      <c r="S21" s="19">
+      <c r="Q21" s="17">
+        <v>0</v>
+      </c>
+      <c r="R21" s="17">
+        <v>0</v>
+      </c>
+      <c r="S21" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T21" s="19">
+      <c r="T21" s="17">
         <v>0.09</v>
       </c>
-      <c r="U21" s="19">
-        <v>0</v>
-      </c>
-      <c r="V21" s="19">
-        <v>0</v>
-      </c>
-      <c r="W21" s="19">
-        <v>0</v>
-      </c>
-      <c r="X21" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="26">
+      <c r="U21" s="17">
+        <v>0</v>
+      </c>
+      <c r="V21" s="17">
+        <v>0</v>
+      </c>
+      <c r="W21" s="17">
+        <v>0</v>
+      </c>
+      <c r="X21" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z21" s="26">
+      <c r="Z21" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA21" s="26">
+      <c r="AA21" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB21" s="26">
+      <c r="AB21" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -2760,10 +2763,10 @@
       <c r="A22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="28">
+      <c r="B22" s="26">
         <v>0.3</v>
       </c>
-      <c r="C22" s="28">
+      <c r="C22" s="26">
         <v>0.3</v>
       </c>
       <c r="D22" s="8">
@@ -2787,7 +2790,7 @@
       <c r="J22" s="8">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="K22" s="22">
+      <c r="K22" s="20">
         <v>0</v>
       </c>
       <c r="L22">
@@ -2799,46 +2802,46 @@
       <c r="N22">
         <v>0</v>
       </c>
-      <c r="O22" s="25">
+      <c r="O22" s="23">
         <v>0.01</v>
       </c>
-      <c r="P22" s="19">
+      <c r="P22" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q22" s="19">
-        <v>0</v>
-      </c>
-      <c r="R22" s="19">
-        <v>0</v>
-      </c>
-      <c r="S22" s="19">
+      <c r="Q22" s="17">
+        <v>0</v>
+      </c>
+      <c r="R22" s="17">
+        <v>0</v>
+      </c>
+      <c r="S22" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T22" s="19">
+      <c r="T22" s="17">
         <v>0.09</v>
       </c>
-      <c r="U22" s="19">
-        <v>0</v>
-      </c>
-      <c r="V22" s="19">
-        <v>0</v>
-      </c>
-      <c r="W22" s="19">
-        <v>0</v>
-      </c>
-      <c r="X22" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="26">
+      <c r="U22" s="17">
+        <v>0</v>
+      </c>
+      <c r="V22" s="17">
+        <v>0</v>
+      </c>
+      <c r="W22" s="17">
+        <v>0</v>
+      </c>
+      <c r="X22" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z22" s="26">
+      <c r="Z22" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA22" s="26">
+      <c r="AA22" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB22" s="26">
+      <c r="AB22" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -2846,10 +2849,10 @@
       <c r="A23" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="28">
+      <c r="B23" s="26">
         <v>0.20499999999999999</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C23" s="26">
         <v>0.255</v>
       </c>
       <c r="D23" s="8">
@@ -2873,7 +2876,7 @@
       <c r="J23" s="8">
         <v>0.06</v>
       </c>
-      <c r="K23" s="22">
+      <c r="K23" s="20">
         <v>0</v>
       </c>
       <c r="L23">
@@ -2885,46 +2888,46 @@
       <c r="N23">
         <v>0</v>
       </c>
-      <c r="O23" s="25">
+      <c r="O23" s="23">
         <v>0.01</v>
       </c>
-      <c r="P23" s="19">
+      <c r="P23" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q23" s="19">
-        <v>0</v>
-      </c>
-      <c r="R23" s="19">
-        <v>0</v>
-      </c>
-      <c r="S23" s="19">
+      <c r="Q23" s="17">
+        <v>0</v>
+      </c>
+      <c r="R23" s="17">
+        <v>0</v>
+      </c>
+      <c r="S23" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T23" s="19">
+      <c r="T23" s="17">
         <v>0.09</v>
       </c>
-      <c r="U23" s="19">
-        <v>0</v>
-      </c>
-      <c r="V23" s="19">
-        <v>0</v>
-      </c>
-      <c r="W23" s="19">
-        <v>0</v>
-      </c>
-      <c r="X23" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="26">
+      <c r="U23" s="17">
+        <v>0</v>
+      </c>
+      <c r="V23" s="17">
+        <v>0</v>
+      </c>
+      <c r="W23" s="17">
+        <v>0</v>
+      </c>
+      <c r="X23" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z23" s="26">
+      <c r="Z23" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA23" s="26">
+      <c r="AA23" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB23" s="26">
+      <c r="AB23" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -2932,10 +2935,10 @@
       <c r="A24" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="28">
+      <c r="B24" s="26">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="26">
         <v>0.3</v>
       </c>
       <c r="D24" s="8">
@@ -2959,7 +2962,7 @@
       <c r="J24" s="8">
         <v>0</v>
       </c>
-      <c r="K24" s="22">
+      <c r="K24" s="20">
         <v>0</v>
       </c>
       <c r="L24">
@@ -2971,46 +2974,46 @@
       <c r="N24">
         <v>0</v>
       </c>
-      <c r="O24" s="25">
+      <c r="O24" s="23">
         <v>0.01</v>
       </c>
-      <c r="P24" s="19">
+      <c r="P24" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q24" s="19">
-        <v>0</v>
-      </c>
-      <c r="R24" s="19">
-        <v>0</v>
-      </c>
-      <c r="S24" s="19">
+      <c r="Q24" s="17">
+        <v>0</v>
+      </c>
+      <c r="R24" s="17">
+        <v>0</v>
+      </c>
+      <c r="S24" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T24" s="19">
+      <c r="T24" s="17">
         <v>0.09</v>
       </c>
-      <c r="U24" s="19">
-        <v>0</v>
-      </c>
-      <c r="V24" s="19">
-        <v>0</v>
-      </c>
-      <c r="W24" s="19">
-        <v>0</v>
-      </c>
-      <c r="X24" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="26">
+      <c r="U24" s="17">
+        <v>0</v>
+      </c>
+      <c r="V24" s="17">
+        <v>0</v>
+      </c>
+      <c r="W24" s="17">
+        <v>0</v>
+      </c>
+      <c r="X24" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z24" s="26">
+      <c r="Z24" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA24" s="26">
+      <c r="AA24" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB24" s="26">
+      <c r="AB24" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -3018,10 +3021,10 @@
       <c r="A25" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="28">
+      <c r="B25" s="26">
         <v>0.22</v>
       </c>
-      <c r="C25" s="28">
+      <c r="C25" s="26">
         <v>0.28000000000000003</v>
       </c>
       <c r="D25" s="8">
@@ -3045,7 +3048,7 @@
       <c r="J25" s="8">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K25" s="22">
+      <c r="K25" s="20">
         <v>0</v>
       </c>
       <c r="L25">
@@ -3057,46 +3060,46 @@
       <c r="N25">
         <v>0</v>
       </c>
-      <c r="O25" s="25">
+      <c r="O25" s="23">
         <v>0.01</v>
       </c>
-      <c r="P25" s="19">
+      <c r="P25" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q25" s="19">
-        <v>0</v>
-      </c>
-      <c r="R25" s="19">
-        <v>0</v>
-      </c>
-      <c r="S25" s="19">
+      <c r="Q25" s="17">
+        <v>0</v>
+      </c>
+      <c r="R25" s="17">
+        <v>0</v>
+      </c>
+      <c r="S25" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T25" s="19">
+      <c r="T25" s="17">
         <v>0.09</v>
       </c>
-      <c r="U25" s="19">
-        <v>0</v>
-      </c>
-      <c r="V25" s="19">
-        <v>0</v>
-      </c>
-      <c r="W25" s="19">
-        <v>0</v>
-      </c>
-      <c r="X25" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="26">
+      <c r="U25" s="17">
+        <v>0</v>
+      </c>
+      <c r="V25" s="17">
+        <v>0</v>
+      </c>
+      <c r="W25" s="17">
+        <v>0</v>
+      </c>
+      <c r="X25" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z25" s="26">
+      <c r="Z25" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA25" s="26">
+      <c r="AA25" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB25" s="26">
+      <c r="AB25" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -3104,10 +3107,10 @@
       <c r="A26" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="28">
+      <c r="B26" s="26">
         <v>0.19</v>
       </c>
-      <c r="C26" s="28">
+      <c r="C26" s="26">
         <v>0.19</v>
       </c>
       <c r="D26" s="8">
@@ -3131,7 +3134,7 @@
       <c r="J26" s="8">
         <v>0</v>
       </c>
-      <c r="K26" s="22">
+      <c r="K26" s="20">
         <v>1</v>
       </c>
       <c r="L26">
@@ -3143,46 +3146,46 @@
       <c r="N26">
         <v>0</v>
       </c>
-      <c r="O26" s="25">
+      <c r="O26" s="23">
         <v>0.01</v>
       </c>
-      <c r="P26" s="19">
+      <c r="P26" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q26" s="19">
-        <v>0</v>
-      </c>
-      <c r="R26" s="19">
-        <v>0</v>
-      </c>
-      <c r="S26" s="19">
+      <c r="Q26" s="17">
+        <v>0</v>
+      </c>
+      <c r="R26" s="17">
+        <v>0</v>
+      </c>
+      <c r="S26" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T26" s="19">
+      <c r="T26" s="17">
         <v>0.09</v>
       </c>
-      <c r="U26" s="19">
-        <v>0</v>
-      </c>
-      <c r="V26" s="19">
-        <v>0</v>
-      </c>
-      <c r="W26" s="19">
-        <v>0</v>
-      </c>
-      <c r="X26" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="26">
+      <c r="U26" s="17">
+        <v>0</v>
+      </c>
+      <c r="V26" s="17">
+        <v>0</v>
+      </c>
+      <c r="W26" s="17">
+        <v>0</v>
+      </c>
+      <c r="X26" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z26" s="26">
+      <c r="Z26" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA26" s="26">
+      <c r="AA26" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB26" s="26">
+      <c r="AB26" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -3190,10 +3193,10 @@
       <c r="A27" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="28">
+      <c r="B27" s="26">
         <v>0.315</v>
       </c>
-      <c r="C27" s="28">
+      <c r="C27" s="26">
         <v>0.28999999999999998</v>
       </c>
       <c r="D27" s="8">
@@ -3217,7 +3220,7 @@
       <c r="J27" s="8">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K27" s="22">
+      <c r="K27" s="20">
         <v>1</v>
       </c>
       <c r="L27">
@@ -3229,46 +3232,46 @@
       <c r="N27">
         <v>0</v>
       </c>
-      <c r="O27" s="25">
+      <c r="O27" s="23">
         <v>0.01</v>
       </c>
-      <c r="P27" s="19">
+      <c r="P27" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q27" s="19">
-        <v>0</v>
-      </c>
-      <c r="R27" s="19">
-        <v>0</v>
-      </c>
-      <c r="S27" s="19">
+      <c r="Q27" s="17">
+        <v>0</v>
+      </c>
+      <c r="R27" s="17">
+        <v>0</v>
+      </c>
+      <c r="S27" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T27" s="19">
+      <c r="T27" s="17">
         <v>0.09</v>
       </c>
-      <c r="U27" s="19">
-        <v>0</v>
-      </c>
-      <c r="V27" s="19">
-        <v>0</v>
-      </c>
-      <c r="W27" s="19">
-        <v>0</v>
-      </c>
-      <c r="X27" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="26">
+      <c r="U27" s="17">
+        <v>0</v>
+      </c>
+      <c r="V27" s="17">
+        <v>0</v>
+      </c>
+      <c r="W27" s="17">
+        <v>0</v>
+      </c>
+      <c r="X27" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z27" s="26">
+      <c r="Z27" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA27" s="26">
+      <c r="AA27" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB27" s="26">
+      <c r="AB27" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -3276,10 +3279,10 @@
       <c r="A28" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="28">
+      <c r="B28" s="26">
         <v>0.22399999999999998</v>
       </c>
-      <c r="C28" s="28">
+      <c r="C28" s="26">
         <v>0.21</v>
       </c>
       <c r="D28" s="8">
@@ -3303,7 +3306,7 @@
       <c r="J28" s="8">
         <v>0</v>
       </c>
-      <c r="K28" s="22">
+      <c r="K28" s="20">
         <v>0</v>
       </c>
       <c r="L28">
@@ -3315,46 +3318,46 @@
       <c r="N28">
         <v>0</v>
       </c>
-      <c r="O28" s="25">
+      <c r="O28" s="23">
         <v>0.01</v>
       </c>
-      <c r="P28" s="19">
+      <c r="P28" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q28" s="19">
-        <v>0</v>
-      </c>
-      <c r="R28" s="19">
-        <v>0</v>
-      </c>
-      <c r="S28" s="19">
+      <c r="Q28" s="17">
+        <v>0</v>
+      </c>
+      <c r="R28" s="17">
+        <v>0</v>
+      </c>
+      <c r="S28" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T28" s="19">
+      <c r="T28" s="17">
         <v>0.09</v>
       </c>
-      <c r="U28" s="19">
-        <v>0</v>
-      </c>
-      <c r="V28" s="19">
-        <v>0</v>
-      </c>
-      <c r="W28" s="19">
-        <v>0</v>
-      </c>
-      <c r="X28" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="26">
+      <c r="U28" s="17">
+        <v>0</v>
+      </c>
+      <c r="V28" s="17">
+        <v>0</v>
+      </c>
+      <c r="W28" s="17">
+        <v>0</v>
+      </c>
+      <c r="X28" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z28" s="26">
+      <c r="Z28" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA28" s="26">
+      <c r="AA28" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB28" s="26">
+      <c r="AB28" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -3362,10 +3365,10 @@
       <c r="A29" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="28">
+      <c r="B29" s="26">
         <v>0.19</v>
       </c>
-      <c r="C29" s="28">
+      <c r="C29" s="26">
         <v>0.2</v>
       </c>
       <c r="D29" s="8">
@@ -3389,7 +3392,7 @@
       <c r="J29" s="8">
         <v>0</v>
       </c>
-      <c r="K29" s="22">
+      <c r="K29" s="20">
         <v>0</v>
       </c>
       <c r="L29">
@@ -3401,46 +3404,46 @@
       <c r="N29">
         <v>0</v>
       </c>
-      <c r="O29" s="25">
+      <c r="O29" s="23">
         <v>0.01</v>
       </c>
-      <c r="P29" s="19">
+      <c r="P29" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q29" s="19">
-        <v>0</v>
-      </c>
-      <c r="R29" s="19">
-        <v>0</v>
-      </c>
-      <c r="S29" s="19">
+      <c r="Q29" s="17">
+        <v>0</v>
+      </c>
+      <c r="R29" s="17">
+        <v>0</v>
+      </c>
+      <c r="S29" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T29" s="19">
+      <c r="T29" s="17">
         <v>0.09</v>
       </c>
-      <c r="U29" s="19">
-        <v>0</v>
-      </c>
-      <c r="V29" s="19">
-        <v>0</v>
-      </c>
-      <c r="W29" s="19">
-        <v>0</v>
-      </c>
-      <c r="X29" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="26">
+      <c r="U29" s="17">
+        <v>0</v>
+      </c>
+      <c r="V29" s="17">
+        <v>0</v>
+      </c>
+      <c r="W29" s="17">
+        <v>0</v>
+      </c>
+      <c r="X29" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z29" s="26">
+      <c r="Z29" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA29" s="26">
+      <c r="AA29" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB29" s="26">
+      <c r="AB29" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -3448,10 +3451,10 @@
       <c r="A30" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="28">
+      <c r="B30" s="26">
         <v>0.25</v>
       </c>
-      <c r="C30" s="28">
+      <c r="C30" s="26">
         <v>0.3</v>
       </c>
       <c r="D30" s="8">
@@ -3475,7 +3478,7 @@
       <c r="J30" s="8">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="K30" s="22">
+      <c r="K30" s="20">
         <v>0</v>
       </c>
       <c r="L30">
@@ -3487,46 +3490,46 @@
       <c r="N30">
         <v>0</v>
       </c>
-      <c r="O30" s="25">
+      <c r="O30" s="23">
         <v>0.01</v>
       </c>
-      <c r="P30" s="19">
+      <c r="P30" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q30" s="19">
-        <v>0</v>
-      </c>
-      <c r="R30" s="19">
-        <v>0</v>
-      </c>
-      <c r="S30" s="19">
+      <c r="Q30" s="17">
+        <v>0</v>
+      </c>
+      <c r="R30" s="17">
+        <v>0</v>
+      </c>
+      <c r="S30" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T30" s="19">
+      <c r="T30" s="17">
         <v>0.09</v>
       </c>
-      <c r="U30" s="19">
-        <v>0</v>
-      </c>
-      <c r="V30" s="19">
-        <v>0</v>
-      </c>
-      <c r="W30" s="19">
-        <v>0</v>
-      </c>
-      <c r="X30" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="26">
+      <c r="U30" s="17">
+        <v>0</v>
+      </c>
+      <c r="V30" s="17">
+        <v>0</v>
+      </c>
+      <c r="W30" s="17">
+        <v>0</v>
+      </c>
+      <c r="X30" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z30" s="26">
+      <c r="Z30" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA30" s="26">
+      <c r="AA30" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB30" s="26">
+      <c r="AB30" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -3534,10 +3537,10 @@
       <c r="A31" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="28">
+      <c r="B31" s="26">
         <v>0.20600000000000002</v>
       </c>
-      <c r="C31" s="28">
+      <c r="C31" s="26">
         <v>0.26300000000000001</v>
       </c>
       <c r="D31" s="8">
@@ -3561,7 +3564,7 @@
       <c r="J31" s="8">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="K31" s="22">
+      <c r="K31" s="20">
         <v>0</v>
       </c>
       <c r="L31">
@@ -3573,46 +3576,46 @@
       <c r="N31">
         <v>0</v>
       </c>
-      <c r="O31" s="25">
+      <c r="O31" s="23">
         <v>0.01</v>
       </c>
-      <c r="P31" s="19">
+      <c r="P31" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q31" s="19">
-        <v>0</v>
-      </c>
-      <c r="R31" s="19">
-        <v>0</v>
-      </c>
-      <c r="S31" s="19">
+      <c r="Q31" s="17">
+        <v>0</v>
+      </c>
+      <c r="R31" s="17">
+        <v>0</v>
+      </c>
+      <c r="S31" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T31" s="19">
+      <c r="T31" s="17">
         <v>0.09</v>
       </c>
-      <c r="U31" s="19">
-        <v>0</v>
-      </c>
-      <c r="V31" s="19">
-        <v>0</v>
-      </c>
-      <c r="W31" s="19">
-        <v>0</v>
-      </c>
-      <c r="X31" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="26">
+      <c r="U31" s="17">
+        <v>0</v>
+      </c>
+      <c r="V31" s="17">
+        <v>0</v>
+      </c>
+      <c r="W31" s="17">
+        <v>0</v>
+      </c>
+      <c r="X31" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z31" s="26">
+      <c r="Z31" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA31" s="26">
+      <c r="AA31" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB31" s="26">
+      <c r="AB31" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -3620,10 +3623,10 @@
       <c r="A32" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="28">
+      <c r="B32" s="26">
         <v>0.18</v>
       </c>
-      <c r="C32" s="28">
+      <c r="C32" s="26">
         <v>0.21199999999999999</v>
       </c>
       <c r="D32" s="8">
@@ -3647,7 +3650,7 @@
       <c r="J32" s="8">
         <v>0</v>
       </c>
-      <c r="K32" s="22">
+      <c r="K32" s="20">
         <v>1</v>
       </c>
       <c r="L32">
@@ -3659,46 +3662,46 @@
       <c r="N32">
         <v>0</v>
       </c>
-      <c r="O32" s="25">
+      <c r="O32" s="23">
         <v>0.01</v>
       </c>
-      <c r="P32" s="19">
+      <c r="P32" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q32" s="19">
-        <v>0</v>
-      </c>
-      <c r="R32" s="19">
-        <v>0</v>
-      </c>
-      <c r="S32" s="19">
+      <c r="Q32" s="17">
+        <v>0</v>
+      </c>
+      <c r="R32" s="17">
+        <v>0</v>
+      </c>
+      <c r="S32" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T32" s="19">
+      <c r="T32" s="17">
         <v>0.09</v>
       </c>
-      <c r="U32" s="19">
-        <v>0</v>
-      </c>
-      <c r="V32" s="19">
-        <v>0</v>
-      </c>
-      <c r="W32" s="19">
-        <v>0</v>
-      </c>
-      <c r="X32" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="26">
+      <c r="U32" s="17">
+        <v>0</v>
+      </c>
+      <c r="V32" s="17">
+        <v>0</v>
+      </c>
+      <c r="W32" s="17">
+        <v>0</v>
+      </c>
+      <c r="X32" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z32" s="26">
+      <c r="Z32" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA32" s="26">
+      <c r="AA32" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB32" s="26">
+      <c r="AB32" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -3706,10 +3709,10 @@
       <c r="A33" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="28">
+      <c r="B33" s="26">
         <v>0.2</v>
       </c>
-      <c r="C33" s="28">
+      <c r="C33" s="26">
         <v>0.2</v>
       </c>
       <c r="D33" s="8">
@@ -3733,7 +3736,7 @@
       <c r="J33" s="8">
         <v>0</v>
       </c>
-      <c r="K33" s="22">
+      <c r="K33" s="20">
         <v>1</v>
       </c>
       <c r="L33">
@@ -3745,46 +3748,46 @@
       <c r="N33">
         <v>0</v>
       </c>
-      <c r="O33" s="25">
+      <c r="O33" s="23">
         <v>0.01</v>
       </c>
-      <c r="P33" s="19">
+      <c r="P33" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q33" s="19">
-        <v>0</v>
-      </c>
-      <c r="R33" s="19">
-        <v>0</v>
-      </c>
-      <c r="S33" s="19">
+      <c r="Q33" s="17">
+        <v>0</v>
+      </c>
+      <c r="R33" s="17">
+        <v>0</v>
+      </c>
+      <c r="S33" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T33" s="19">
+      <c r="T33" s="17">
         <v>0.09</v>
       </c>
-      <c r="U33" s="19">
-        <v>0</v>
-      </c>
-      <c r="V33" s="19">
-        <v>0</v>
-      </c>
-      <c r="W33" s="19">
-        <v>0</v>
-      </c>
-      <c r="X33" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="26">
+      <c r="U33" s="17">
+        <v>0</v>
+      </c>
+      <c r="V33" s="17">
+        <v>0</v>
+      </c>
+      <c r="W33" s="17">
+        <v>0</v>
+      </c>
+      <c r="X33" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z33" s="26">
+      <c r="Z33" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA33" s="26">
+      <c r="AA33" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB33" s="26">
+      <c r="AB33" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -3792,10 +3795,10 @@
       <c r="A34" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="28">
+      <c r="B34" s="26">
         <v>0.17</v>
       </c>
-      <c r="C34" s="28">
+      <c r="C34" s="26">
         <v>0.28000000000000003</v>
       </c>
       <c r="D34" s="8">
@@ -3819,7 +3822,7 @@
       <c r="J34" s="8">
         <v>0.05</v>
       </c>
-      <c r="K34" s="22">
+      <c r="K34" s="20">
         <v>1</v>
       </c>
       <c r="L34">
@@ -3831,46 +3834,46 @@
       <c r="N34">
         <v>0</v>
       </c>
-      <c r="O34" s="25">
+      <c r="O34" s="23">
         <v>0.01</v>
       </c>
-      <c r="P34" s="19">
+      <c r="P34" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q34" s="19">
-        <v>0</v>
-      </c>
-      <c r="R34" s="19">
-        <v>0</v>
-      </c>
-      <c r="S34" s="19">
+      <c r="Q34" s="17">
+        <v>0</v>
+      </c>
+      <c r="R34" s="17">
+        <v>0</v>
+      </c>
+      <c r="S34" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T34" s="19">
+      <c r="T34" s="17">
         <v>0.09</v>
       </c>
-      <c r="U34" s="19">
-        <v>0</v>
-      </c>
-      <c r="V34" s="19">
-        <v>0</v>
-      </c>
-      <c r="W34" s="19">
-        <v>0</v>
-      </c>
-      <c r="X34" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="26">
+      <c r="U34" s="17">
+        <v>0</v>
+      </c>
+      <c r="V34" s="17">
+        <v>0</v>
+      </c>
+      <c r="W34" s="17">
+        <v>0</v>
+      </c>
+      <c r="X34" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z34" s="26">
+      <c r="Z34" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA34" s="26">
+      <c r="AA34" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB34" s="26">
+      <c r="AB34" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -3878,10 +3881,10 @@
       <c r="A35" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="28">
+      <c r="B35" s="26">
         <v>0.25700000000000001</v>
       </c>
-      <c r="C35" s="28">
+      <c r="C35" s="26">
         <v>0.39200000000000002</v>
       </c>
       <c r="D35" s="8">
@@ -3905,7 +3908,7 @@
       <c r="J35" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K35" s="22">
+      <c r="K35" s="20">
         <v>0</v>
       </c>
       <c r="L35">
@@ -3917,46 +3920,46 @@
       <c r="N35">
         <v>0</v>
       </c>
-      <c r="O35" s="25">
+      <c r="O35" s="23">
         <v>0.01</v>
       </c>
-      <c r="P35" s="19">
+      <c r="P35" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q35" s="19">
-        <v>0</v>
-      </c>
-      <c r="R35" s="19">
-        <v>0</v>
-      </c>
-      <c r="S35" s="19">
+      <c r="Q35" s="17">
+        <v>0</v>
+      </c>
+      <c r="R35" s="17">
+        <v>0</v>
+      </c>
+      <c r="S35" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T35" s="19">
+      <c r="T35" s="17">
         <v>0.09</v>
       </c>
-      <c r="U35" s="19">
-        <v>0</v>
-      </c>
-      <c r="V35" s="19">
-        <v>0</v>
-      </c>
-      <c r="W35" s="19">
-        <v>0</v>
-      </c>
-      <c r="X35" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="26">
+      <c r="U35" s="17">
+        <v>0</v>
+      </c>
+      <c r="V35" s="17">
+        <v>0</v>
+      </c>
+      <c r="W35" s="17">
+        <v>0</v>
+      </c>
+      <c r="X35" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z35" s="26">
+      <c r="Z35" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA35" s="26">
+      <c r="AA35" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB35" s="26">
+      <c r="AB35" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -3964,10 +3967,10 @@
       <c r="A36" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="28">
+      <c r="B36" s="26">
         <v>0.34</v>
       </c>
-      <c r="C36" s="28">
+      <c r="C36" s="26">
         <v>0.34</v>
       </c>
       <c r="D36" s="8">
@@ -3991,7 +3994,7 @@
       <c r="J36" s="8">
         <v>0.04</v>
       </c>
-      <c r="K36" s="22">
+      <c r="K36" s="20">
         <v>1</v>
       </c>
       <c r="L36">
@@ -4003,46 +4006,46 @@
       <c r="N36">
         <v>0</v>
       </c>
-      <c r="O36" s="25">
+      <c r="O36" s="23">
         <v>0.01</v>
       </c>
-      <c r="P36" s="19">
+      <c r="P36" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q36" s="19">
-        <v>0</v>
-      </c>
-      <c r="R36" s="19">
-        <v>0</v>
-      </c>
-      <c r="S36" s="19">
+      <c r="Q36" s="17">
+        <v>0</v>
+      </c>
+      <c r="R36" s="17">
+        <v>0</v>
+      </c>
+      <c r="S36" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T36" s="19">
+      <c r="T36" s="17">
         <v>0.09</v>
       </c>
-      <c r="U36" s="19">
-        <v>0</v>
-      </c>
-      <c r="V36" s="19">
-        <v>0</v>
-      </c>
-      <c r="W36" s="19">
-        <v>0</v>
-      </c>
-      <c r="X36" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="26">
+      <c r="U36" s="17">
+        <v>0</v>
+      </c>
+      <c r="V36" s="17">
+        <v>0</v>
+      </c>
+      <c r="W36" s="17">
+        <v>0</v>
+      </c>
+      <c r="X36" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z36" s="26">
+      <c r="Z36" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA36" s="26">
+      <c r="AA36" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB36" s="26">
+      <c r="AB36" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -4050,10 +4053,10 @@
       <c r="A37" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="28">
+      <c r="B37" s="26">
         <v>0.25</v>
       </c>
-      <c r="C37" s="28">
+      <c r="C37" s="26">
         <v>0.25</v>
       </c>
       <c r="D37" s="8">
@@ -4077,7 +4080,7 @@
       <c r="J37" s="8">
         <v>0.04</v>
       </c>
-      <c r="K37" s="22">
+      <c r="K37" s="20">
         <v>0</v>
       </c>
       <c r="L37">
@@ -4089,46 +4092,46 @@
       <c r="N37">
         <v>0</v>
       </c>
-      <c r="O37" s="25">
+      <c r="O37" s="23">
         <v>0.01</v>
       </c>
-      <c r="P37" s="19">
+      <c r="P37" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q37" s="19">
-        <v>0</v>
-      </c>
-      <c r="R37" s="19">
-        <v>0</v>
-      </c>
-      <c r="S37" s="19">
+      <c r="Q37" s="17">
+        <v>0</v>
+      </c>
+      <c r="R37" s="17">
+        <v>0</v>
+      </c>
+      <c r="S37" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T37" s="19">
+      <c r="T37" s="17">
         <v>0.09</v>
       </c>
-      <c r="U37" s="19">
-        <v>0</v>
-      </c>
-      <c r="V37" s="19">
-        <v>0</v>
-      </c>
-      <c r="W37" s="19">
-        <v>0</v>
-      </c>
-      <c r="X37" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="26">
+      <c r="U37" s="17">
+        <v>0</v>
+      </c>
+      <c r="V37" s="17">
+        <v>0</v>
+      </c>
+      <c r="W37" s="17">
+        <v>0</v>
+      </c>
+      <c r="X37" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z37" s="26">
+      <c r="Z37" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA37" s="26">
+      <c r="AA37" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB37" s="26">
+      <c r="AB37" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -4136,10 +4139,10 @@
       <c r="A38" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="28">
+      <c r="B38" s="26">
         <v>0.23800000000000002</v>
       </c>
-      <c r="C38" s="28">
+      <c r="C38" s="26">
         <v>0.33200000000000002</v>
       </c>
       <c r="D38" s="8">
@@ -4163,7 +4166,7 @@
       <c r="J38" s="8">
         <v>0.06</v>
       </c>
-      <c r="K38" s="22">
+      <c r="K38" s="20">
         <v>1</v>
       </c>
       <c r="L38">
@@ -4175,46 +4178,46 @@
       <c r="N38">
         <v>0</v>
       </c>
-      <c r="O38" s="25">
+      <c r="O38" s="23">
         <v>0.01</v>
       </c>
-      <c r="P38" s="19">
+      <c r="P38" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q38" s="19">
-        <v>0</v>
-      </c>
-      <c r="R38" s="19">
-        <v>0</v>
-      </c>
-      <c r="S38" s="19">
+      <c r="Q38" s="17">
+        <v>0</v>
+      </c>
+      <c r="R38" s="17">
+        <v>0</v>
+      </c>
+      <c r="S38" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T38" s="19">
+      <c r="T38" s="17">
         <v>0.09</v>
       </c>
-      <c r="U38" s="19">
-        <v>0</v>
-      </c>
-      <c r="V38" s="19">
-        <v>0</v>
-      </c>
-      <c r="W38" s="19">
-        <v>0</v>
-      </c>
-      <c r="X38" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="26">
+      <c r="U38" s="17">
+        <v>0</v>
+      </c>
+      <c r="V38" s="17">
+        <v>0</v>
+      </c>
+      <c r="W38" s="17">
+        <v>0</v>
+      </c>
+      <c r="X38" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z38" s="26">
+      <c r="Z38" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA38" s="26">
+      <c r="AA38" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB38" s="26">
+      <c r="AB38" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -4222,10 +4225,10 @@
       <c r="A39" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="28">
+      <c r="B39" s="26">
         <v>0.2</v>
       </c>
-      <c r="C39" s="28">
+      <c r="C39" s="26">
         <v>0.2</v>
       </c>
       <c r="D39" s="8">
@@ -4249,7 +4252,7 @@
       <c r="J39" s="8">
         <v>0</v>
       </c>
-      <c r="K39" s="22">
+      <c r="K39" s="20">
         <v>0</v>
       </c>
       <c r="L39">
@@ -4261,46 +4264,46 @@
       <c r="N39">
         <v>0</v>
       </c>
-      <c r="O39" s="25">
+      <c r="O39" s="23">
         <v>0.01</v>
       </c>
-      <c r="P39" s="19">
+      <c r="P39" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q39" s="19">
-        <v>0</v>
-      </c>
-      <c r="R39" s="19">
-        <v>0</v>
-      </c>
-      <c r="S39" s="19">
+      <c r="Q39" s="17">
+        <v>0</v>
+      </c>
+      <c r="R39" s="17">
+        <v>0</v>
+      </c>
+      <c r="S39" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T39" s="19">
+      <c r="T39" s="17">
         <v>0.09</v>
       </c>
-      <c r="U39" s="19">
-        <v>0</v>
-      </c>
-      <c r="V39" s="19">
-        <v>0</v>
-      </c>
-      <c r="W39" s="19">
-        <v>0</v>
-      </c>
-      <c r="X39" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="26">
+      <c r="U39" s="17">
+        <v>0</v>
+      </c>
+      <c r="V39" s="17">
+        <v>0</v>
+      </c>
+      <c r="W39" s="17">
+        <v>0</v>
+      </c>
+      <c r="X39" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z39" s="26">
+      <c r="Z39" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA39" s="26">
+      <c r="AA39" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB39" s="26">
+      <c r="AB39" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -4308,10 +4311,10 @@
       <c r="A40" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="28">
+      <c r="B40" s="26">
         <v>0.25</v>
       </c>
-      <c r="C40" s="28">
+      <c r="C40" s="26">
         <v>0.35</v>
       </c>
       <c r="D40" s="8">
@@ -4335,7 +4338,7 @@
       <c r="J40" s="8">
         <v>0</v>
       </c>
-      <c r="K40" s="22">
+      <c r="K40" s="20">
         <v>1</v>
       </c>
       <c r="L40">
@@ -4347,46 +4350,46 @@
       <c r="N40">
         <v>0</v>
       </c>
-      <c r="O40" s="25">
+      <c r="O40" s="23">
         <v>0.01</v>
       </c>
-      <c r="P40" s="19">
+      <c r="P40" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q40" s="19">
-        <v>0</v>
-      </c>
-      <c r="R40" s="19">
-        <v>0</v>
-      </c>
-      <c r="S40" s="19">
+      <c r="Q40" s="17">
+        <v>0</v>
+      </c>
+      <c r="R40" s="17">
+        <v>0</v>
+      </c>
+      <c r="S40" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T40" s="19">
+      <c r="T40" s="17">
         <v>0.09</v>
       </c>
-      <c r="U40" s="19">
-        <v>0</v>
-      </c>
-      <c r="V40" s="19">
-        <v>0</v>
-      </c>
-      <c r="W40" s="19">
-        <v>0</v>
-      </c>
-      <c r="X40" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="26">
+      <c r="U40" s="17">
+        <v>0</v>
+      </c>
+      <c r="V40" s="17">
+        <v>0</v>
+      </c>
+      <c r="W40" s="17">
+        <v>0</v>
+      </c>
+      <c r="X40" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z40" s="26">
+      <c r="Z40" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA40" s="26">
+      <c r="AA40" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB40" s="26">
+      <c r="AB40" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -4394,10 +4397,10 @@
       <c r="A41" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="28">
+      <c r="B41" s="26">
         <v>0.25</v>
       </c>
-      <c r="C41" s="28">
+      <c r="C41" s="26">
         <v>0.27500000000000002</v>
       </c>
       <c r="D41" s="8">
@@ -4421,7 +4424,7 @@
       <c r="J41" s="8">
         <v>0</v>
       </c>
-      <c r="K41" s="22">
+      <c r="K41" s="20">
         <v>0</v>
       </c>
       <c r="L41">
@@ -4433,46 +4436,46 @@
       <c r="N41">
         <v>0</v>
       </c>
-      <c r="O41" s="25">
+      <c r="O41" s="23">
         <v>0.01</v>
       </c>
-      <c r="P41" s="19">
+      <c r="P41" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q41" s="19">
-        <v>0</v>
-      </c>
-      <c r="R41" s="19">
-        <v>0</v>
-      </c>
-      <c r="S41" s="19">
+      <c r="Q41" s="17">
+        <v>0</v>
+      </c>
+      <c r="R41" s="17">
+        <v>0</v>
+      </c>
+      <c r="S41" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T41" s="19">
+      <c r="T41" s="17">
         <v>0.09</v>
       </c>
-      <c r="U41" s="19">
-        <v>0</v>
-      </c>
-      <c r="V41" s="19">
-        <v>0</v>
-      </c>
-      <c r="W41" s="19">
-        <v>0</v>
-      </c>
-      <c r="X41" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="26">
+      <c r="U41" s="17">
+        <v>0</v>
+      </c>
+      <c r="V41" s="17">
+        <v>0</v>
+      </c>
+      <c r="W41" s="17">
+        <v>0</v>
+      </c>
+      <c r="X41" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z41" s="26">
+      <c r="Z41" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA41" s="26">
+      <c r="AA41" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB41" s="26">
+      <c r="AB41" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -4480,10 +4483,10 @@
       <c r="A42" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="28">
+      <c r="B42" s="26">
         <v>0.25</v>
       </c>
-      <c r="C42" s="28">
+      <c r="C42" s="26">
         <v>0.25</v>
       </c>
       <c r="D42" s="8">
@@ -4507,7 +4510,7 @@
       <c r="J42" s="8">
         <v>0.03</v>
       </c>
-      <c r="K42" s="22">
+      <c r="K42" s="20">
         <v>1</v>
       </c>
       <c r="L42">
@@ -4519,46 +4522,46 @@
       <c r="N42">
         <v>0</v>
       </c>
-      <c r="O42" s="25">
+      <c r="O42" s="23">
         <v>0.01</v>
       </c>
-      <c r="P42" s="19">
+      <c r="P42" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q42" s="19">
-        <v>0</v>
-      </c>
-      <c r="R42" s="19">
-        <v>0</v>
-      </c>
-      <c r="S42" s="19">
+      <c r="Q42" s="17">
+        <v>0</v>
+      </c>
+      <c r="R42" s="17">
+        <v>0</v>
+      </c>
+      <c r="S42" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T42" s="19">
+      <c r="T42" s="17">
         <v>0.09</v>
       </c>
-      <c r="U42" s="19">
-        <v>0</v>
-      </c>
-      <c r="V42" s="19">
-        <v>0</v>
-      </c>
-      <c r="W42" s="19">
-        <v>0</v>
-      </c>
-      <c r="X42" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="26">
+      <c r="U42" s="17">
+        <v>0</v>
+      </c>
+      <c r="V42" s="17">
+        <v>0</v>
+      </c>
+      <c r="W42" s="17">
+        <v>0</v>
+      </c>
+      <c r="X42" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z42" s="26">
+      <c r="Z42" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA42" s="26">
+      <c r="AA42" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB42" s="26">
+      <c r="AB42" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -4566,10 +4569,10 @@
       <c r="A43" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="28">
+      <c r="B43" s="26">
         <v>0.214</v>
       </c>
-      <c r="C43" s="28">
+      <c r="C43" s="26">
         <v>0.24100000000000002</v>
       </c>
       <c r="D43" s="8">
@@ -4593,7 +4596,7 @@
       <c r="J43" s="8">
         <v>0.17</v>
       </c>
-      <c r="K43" s="22">
+      <c r="K43" s="20">
         <v>0</v>
       </c>
       <c r="L43">
@@ -4605,46 +4608,46 @@
       <c r="N43">
         <v>0</v>
       </c>
-      <c r="O43" s="25">
+      <c r="O43" s="23">
         <v>0.01</v>
       </c>
-      <c r="P43" s="19">
+      <c r="P43" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q43" s="19">
-        <v>0</v>
-      </c>
-      <c r="R43" s="19">
-        <v>0</v>
-      </c>
-      <c r="S43" s="19">
+      <c r="Q43" s="17">
+        <v>0</v>
+      </c>
+      <c r="R43" s="17">
+        <v>0</v>
+      </c>
+      <c r="S43" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T43" s="19">
+      <c r="T43" s="17">
         <v>0.09</v>
       </c>
-      <c r="U43" s="19">
-        <v>0</v>
-      </c>
-      <c r="V43" s="19">
-        <v>0</v>
-      </c>
-      <c r="W43" s="19">
-        <v>0</v>
-      </c>
-      <c r="X43" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="26">
+      <c r="U43" s="17">
+        <v>0</v>
+      </c>
+      <c r="V43" s="17">
+        <v>0</v>
+      </c>
+      <c r="W43" s="17">
+        <v>0</v>
+      </c>
+      <c r="X43" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z43" s="26">
+      <c r="Z43" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA43" s="26">
+      <c r="AA43" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB43" s="26">
+      <c r="AB43" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -4652,10 +4655,10 @@
       <c r="A44" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="28">
+      <c r="B44" s="26">
         <v>0.1</v>
       </c>
-      <c r="C44" s="28">
+      <c r="C44" s="26">
         <v>0.1</v>
       </c>
       <c r="D44" s="8">
@@ -4679,7 +4682,7 @@
       <c r="J44" s="8">
         <v>1.6E-2</v>
       </c>
-      <c r="K44" s="22">
+      <c r="K44" s="20">
         <v>0</v>
       </c>
       <c r="L44">
@@ -4691,46 +4694,46 @@
       <c r="N44">
         <v>0</v>
       </c>
-      <c r="O44" s="25">
+      <c r="O44" s="23">
         <v>0.01</v>
       </c>
-      <c r="P44" s="19">
+      <c r="P44" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q44" s="19">
-        <v>0</v>
-      </c>
-      <c r="R44" s="19">
-        <v>0</v>
-      </c>
-      <c r="S44" s="19">
+      <c r="Q44" s="17">
+        <v>0</v>
+      </c>
+      <c r="R44" s="17">
+        <v>0</v>
+      </c>
+      <c r="S44" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T44" s="19">
+      <c r="T44" s="17">
         <v>0.09</v>
       </c>
-      <c r="U44" s="19">
-        <v>0</v>
-      </c>
-      <c r="V44" s="19">
-        <v>0</v>
-      </c>
-      <c r="W44" s="19">
-        <v>0</v>
-      </c>
-      <c r="X44" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="26">
+      <c r="U44" s="17">
+        <v>0</v>
+      </c>
+      <c r="V44" s="17">
+        <v>0</v>
+      </c>
+      <c r="W44" s="17">
+        <v>0</v>
+      </c>
+      <c r="X44" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z44" s="26">
+      <c r="Z44" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA44" s="26">
+      <c r="AA44" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB44" s="26">
+      <c r="AB44" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -4738,10 +4741,10 @@
       <c r="A45" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="28">
+      <c r="B45" s="26">
         <v>0.35</v>
       </c>
-      <c r="C45" s="28">
+      <c r="C45" s="26">
         <v>0.4</v>
       </c>
       <c r="D45" s="8">
@@ -4765,7 +4768,7 @@
       <c r="J45" s="8">
         <v>0.1</v>
       </c>
-      <c r="K45" s="22">
+      <c r="K45" s="20">
         <v>1</v>
       </c>
       <c r="L45">
@@ -4777,46 +4780,46 @@
       <c r="N45">
         <v>0</v>
       </c>
-      <c r="O45" s="25">
+      <c r="O45" s="23">
         <v>0.01</v>
       </c>
-      <c r="P45" s="19">
+      <c r="P45" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q45" s="19">
-        <v>0</v>
-      </c>
-      <c r="R45" s="19">
-        <v>0</v>
-      </c>
-      <c r="S45" s="19">
+      <c r="Q45" s="17">
+        <v>0</v>
+      </c>
+      <c r="R45" s="17">
+        <v>0</v>
+      </c>
+      <c r="S45" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T45" s="19">
+      <c r="T45" s="17">
         <v>0.09</v>
       </c>
-      <c r="U45" s="19">
-        <v>0</v>
-      </c>
-      <c r="V45" s="19">
-        <v>0</v>
-      </c>
-      <c r="W45" s="19">
-        <v>0</v>
-      </c>
-      <c r="X45" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="26">
+      <c r="U45" s="17">
+        <v>0</v>
+      </c>
+      <c r="V45" s="17">
+        <v>0</v>
+      </c>
+      <c r="W45" s="17">
+        <v>0</v>
+      </c>
+      <c r="X45" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z45" s="26">
+      <c r="Z45" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA45" s="26">
+      <c r="AA45" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB45" s="26">
+      <c r="AB45" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -4824,10 +4827,10 @@
       <c r="A46" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="28">
+      <c r="B46" s="26">
         <v>0.3</v>
       </c>
-      <c r="C46" s="28">
+      <c r="C46" s="26">
         <v>0.33</v>
       </c>
       <c r="D46" s="8">
@@ -4851,7 +4854,7 @@
       <c r="J46" s="8">
         <v>0</v>
       </c>
-      <c r="K46" s="22">
+      <c r="K46" s="20">
         <v>1</v>
       </c>
       <c r="L46">
@@ -4863,46 +4866,46 @@
       <c r="N46">
         <v>0</v>
       </c>
-      <c r="O46" s="25">
+      <c r="O46" s="23">
         <v>0.01</v>
       </c>
-      <c r="P46" s="19">
+      <c r="P46" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q46" s="19">
-        <v>0</v>
-      </c>
-      <c r="R46" s="19">
-        <v>0</v>
-      </c>
-      <c r="S46" s="19">
+      <c r="Q46" s="17">
+        <v>0</v>
+      </c>
+      <c r="R46" s="17">
+        <v>0</v>
+      </c>
+      <c r="S46" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T46" s="19">
+      <c r="T46" s="17">
         <v>0.09</v>
       </c>
-      <c r="U46" s="19">
-        <v>0</v>
-      </c>
-      <c r="V46" s="19">
-        <v>0</v>
-      </c>
-      <c r="W46" s="19">
-        <v>0</v>
-      </c>
-      <c r="X46" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="26">
+      <c r="U46" s="17">
+        <v>0</v>
+      </c>
+      <c r="V46" s="17">
+        <v>0</v>
+      </c>
+      <c r="W46" s="17">
+        <v>0</v>
+      </c>
+      <c r="X46" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z46" s="26">
+      <c r="Z46" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA46" s="26">
+      <c r="AA46" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB46" s="26">
+      <c r="AB46" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -4910,10 +4913,10 @@
       <c r="A47" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B47" s="28">
+      <c r="B47" s="26">
         <v>0.3</v>
       </c>
-      <c r="C47" s="28">
+      <c r="C47" s="26">
         <v>0.3</v>
       </c>
       <c r="D47" s="8">
@@ -4937,7 +4940,7 @@
       <c r="J47" s="8">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K47" s="22">
+      <c r="K47" s="20">
         <v>0</v>
       </c>
       <c r="L47">
@@ -4949,46 +4952,46 @@
       <c r="N47">
         <v>0</v>
       </c>
-      <c r="O47" s="25">
+      <c r="O47" s="23">
         <v>0.01</v>
       </c>
-      <c r="P47" s="19">
+      <c r="P47" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q47" s="19">
-        <v>0</v>
-      </c>
-      <c r="R47" s="19">
-        <v>0</v>
-      </c>
-      <c r="S47" s="19">
+      <c r="Q47" s="17">
+        <v>0</v>
+      </c>
+      <c r="R47" s="17">
+        <v>0</v>
+      </c>
+      <c r="S47" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T47" s="19">
+      <c r="T47" s="17">
         <v>0.09</v>
       </c>
-      <c r="U47" s="19">
-        <v>0</v>
-      </c>
-      <c r="V47" s="19">
-        <v>0</v>
-      </c>
-      <c r="W47" s="19">
-        <v>0</v>
-      </c>
-      <c r="X47" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="26">
+      <c r="U47" s="17">
+        <v>0</v>
+      </c>
+      <c r="V47" s="17">
+        <v>0</v>
+      </c>
+      <c r="W47" s="17">
+        <v>0</v>
+      </c>
+      <c r="X47" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z47" s="26">
+      <c r="Z47" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA47" s="26">
+      <c r="AA47" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB47" s="26">
+      <c r="AB47" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -4996,10 +4999,10 @@
       <c r="A48" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="28">
+      <c r="B48" s="26">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C48" s="28">
+      <c r="C48" s="26">
         <v>0.22</v>
       </c>
       <c r="D48" s="8">
@@ -5023,7 +5026,7 @@
       <c r="J48" s="8">
         <v>0.04</v>
       </c>
-      <c r="K48" s="22">
+      <c r="K48" s="20">
         <v>0</v>
       </c>
       <c r="L48">
@@ -5035,46 +5038,46 @@
       <c r="N48">
         <v>0</v>
       </c>
-      <c r="O48" s="25">
+      <c r="O48" s="23">
         <v>0.01</v>
       </c>
-      <c r="P48" s="19">
+      <c r="P48" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q48" s="19">
-        <v>0</v>
-      </c>
-      <c r="R48" s="19">
-        <v>0</v>
-      </c>
-      <c r="S48" s="19">
+      <c r="Q48" s="17">
+        <v>0</v>
+      </c>
+      <c r="R48" s="17">
+        <v>0</v>
+      </c>
+      <c r="S48" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T48" s="19">
+      <c r="T48" s="17">
         <v>0.09</v>
       </c>
-      <c r="U48" s="19">
-        <v>0</v>
-      </c>
-      <c r="V48" s="19">
-        <v>0</v>
-      </c>
-      <c r="W48" s="19">
-        <v>0</v>
-      </c>
-      <c r="X48" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="26">
+      <c r="U48" s="17">
+        <v>0</v>
+      </c>
+      <c r="V48" s="17">
+        <v>0</v>
+      </c>
+      <c r="W48" s="17">
+        <v>0</v>
+      </c>
+      <c r="X48" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z48" s="26">
+      <c r="Z48" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA48" s="26">
+      <c r="AA48" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB48" s="26">
+      <c r="AB48" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -5082,10 +5085,10 @@
       <c r="A49" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="28">
+      <c r="B49" s="26">
         <v>0.27</v>
       </c>
-      <c r="C49" s="28">
+      <c r="C49" s="26">
         <v>0.25</v>
       </c>
       <c r="D49" s="8">
@@ -5109,7 +5112,7 @@
       <c r="J49" s="8">
         <v>0.03</v>
       </c>
-      <c r="K49" s="22">
+      <c r="K49" s="20">
         <v>0</v>
       </c>
       <c r="L49">
@@ -5121,46 +5124,46 @@
       <c r="N49">
         <v>0</v>
       </c>
-      <c r="O49" s="25">
+      <c r="O49" s="23">
         <v>0.01</v>
       </c>
-      <c r="P49" s="19">
+      <c r="P49" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q49" s="19">
-        <v>0</v>
-      </c>
-      <c r="R49" s="19">
-        <v>0</v>
-      </c>
-      <c r="S49" s="19">
+      <c r="Q49" s="17">
+        <v>0</v>
+      </c>
+      <c r="R49" s="17">
+        <v>0</v>
+      </c>
+      <c r="S49" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T49" s="19">
+      <c r="T49" s="17">
         <v>0.09</v>
       </c>
-      <c r="U49" s="19">
-        <v>0</v>
-      </c>
-      <c r="V49" s="19">
-        <v>0</v>
-      </c>
-      <c r="W49" s="19">
-        <v>0</v>
-      </c>
-      <c r="X49" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="26">
+      <c r="U49" s="17">
+        <v>0</v>
+      </c>
+      <c r="V49" s="17">
+        <v>0</v>
+      </c>
+      <c r="W49" s="17">
+        <v>0</v>
+      </c>
+      <c r="X49" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z49" s="26">
+      <c r="Z49" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA49" s="26">
+      <c r="AA49" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB49" s="26">
+      <c r="AB49" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -5168,10 +5171,10 @@
       <c r="A50" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="28">
+      <c r="B50" s="26">
         <v>0.15</v>
       </c>
-      <c r="C50" s="28">
+      <c r="C50" s="26">
         <v>0.15</v>
       </c>
       <c r="D50" s="8">
@@ -5195,7 +5198,7 @@
       <c r="J50" s="8">
         <v>0</v>
       </c>
-      <c r="K50" s="22">
+      <c r="K50" s="20">
         <v>0</v>
       </c>
       <c r="L50">
@@ -5207,46 +5210,46 @@
       <c r="N50">
         <v>0</v>
       </c>
-      <c r="O50" s="25">
+      <c r="O50" s="23">
         <v>0.01</v>
       </c>
-      <c r="P50" s="19">
+      <c r="P50" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q50" s="19">
-        <v>0</v>
-      </c>
-      <c r="R50" s="19">
-        <v>0</v>
-      </c>
-      <c r="S50" s="19">
+      <c r="Q50" s="17">
+        <v>0</v>
+      </c>
+      <c r="R50" s="17">
+        <v>0</v>
+      </c>
+      <c r="S50" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T50" s="19">
+      <c r="T50" s="17">
         <v>0.09</v>
       </c>
-      <c r="U50" s="19">
-        <v>0</v>
-      </c>
-      <c r="V50" s="19">
-        <v>0</v>
-      </c>
-      <c r="W50" s="19">
-        <v>0</v>
-      </c>
-      <c r="X50" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="26">
+      <c r="U50" s="17">
+        <v>0</v>
+      </c>
+      <c r="V50" s="17">
+        <v>0</v>
+      </c>
+      <c r="W50" s="17">
+        <v>0</v>
+      </c>
+      <c r="X50" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z50" s="26">
+      <c r="Z50" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA50" s="26">
+      <c r="AA50" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB50" s="26">
+      <c r="AB50" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -5254,10 +5257,10 @@
       <c r="A51" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="28">
+      <c r="B51" s="26">
         <v>0.22500000000000001</v>
       </c>
-      <c r="C51" s="28">
+      <c r="C51" s="26">
         <v>0.2</v>
       </c>
       <c r="D51" s="8">
@@ -5281,7 +5284,7 @@
       <c r="J51" s="8">
         <v>0</v>
       </c>
-      <c r="K51" s="22">
+      <c r="K51" s="20">
         <v>1</v>
       </c>
       <c r="L51">
@@ -5293,46 +5296,46 @@
       <c r="N51">
         <v>0</v>
       </c>
-      <c r="O51" s="25">
+      <c r="O51" s="23">
         <v>0.01</v>
       </c>
-      <c r="P51" s="19">
+      <c r="P51" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q51" s="19">
-        <v>0</v>
-      </c>
-      <c r="R51" s="19">
-        <v>0</v>
-      </c>
-      <c r="S51" s="19">
+      <c r="Q51" s="17">
+        <v>0</v>
+      </c>
+      <c r="R51" s="17">
+        <v>0</v>
+      </c>
+      <c r="S51" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T51" s="19">
+      <c r="T51" s="17">
         <v>0.09</v>
       </c>
-      <c r="U51" s="19">
-        <v>0</v>
-      </c>
-      <c r="V51" s="19">
-        <v>0</v>
-      </c>
-      <c r="W51" s="19">
-        <v>0</v>
-      </c>
-      <c r="X51" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="26">
+      <c r="U51" s="17">
+        <v>0</v>
+      </c>
+      <c r="V51" s="17">
+        <v>0</v>
+      </c>
+      <c r="W51" s="17">
+        <v>0</v>
+      </c>
+      <c r="X51" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z51" s="26">
+      <c r="Z51" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA51" s="26">
+      <c r="AA51" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB51" s="26">
+      <c r="AB51" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -5340,10 +5343,10 @@
       <c r="A52" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="28">
+      <c r="B52" s="26">
         <v>0.3</v>
       </c>
-      <c r="C52" s="28">
+      <c r="C52" s="26">
         <v>0.3</v>
       </c>
       <c r="D52" s="8">
@@ -5367,7 +5370,7 @@
       <c r="J52" s="8">
         <v>0</v>
       </c>
-      <c r="K52" s="22">
+      <c r="K52" s="20">
         <v>1</v>
       </c>
       <c r="L52">
@@ -5379,46 +5382,46 @@
       <c r="N52">
         <v>0</v>
       </c>
-      <c r="O52" s="25">
+      <c r="O52" s="23">
         <v>0.01</v>
       </c>
-      <c r="P52" s="19">
+      <c r="P52" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q52" s="19">
-        <v>0</v>
-      </c>
-      <c r="R52" s="19">
-        <v>0</v>
-      </c>
-      <c r="S52" s="19">
+      <c r="Q52" s="17">
+        <v>0</v>
+      </c>
+      <c r="R52" s="17">
+        <v>0</v>
+      </c>
+      <c r="S52" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T52" s="19">
+      <c r="T52" s="17">
         <v>0.09</v>
       </c>
-      <c r="U52" s="19">
-        <v>0</v>
-      </c>
-      <c r="V52" s="19">
-        <v>0</v>
-      </c>
-      <c r="W52" s="19">
-        <v>0</v>
-      </c>
-      <c r="X52" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="26">
+      <c r="U52" s="17">
+        <v>0</v>
+      </c>
+      <c r="V52" s="17">
+        <v>0</v>
+      </c>
+      <c r="W52" s="17">
+        <v>0</v>
+      </c>
+      <c r="X52" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z52" s="26">
+      <c r="Z52" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA52" s="26">
+      <c r="AA52" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB52" s="26">
+      <c r="AB52" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -5426,10 +5429,10 @@
       <c r="A53" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="28">
+      <c r="B53" s="26">
         <v>0.2</v>
       </c>
-      <c r="C53" s="28">
+      <c r="C53" s="26">
         <v>0.28000000000000003</v>
       </c>
       <c r="D53" s="8">
@@ -5453,7 +5456,7 @@
       <c r="J53" s="8">
         <v>0</v>
       </c>
-      <c r="K53" s="22">
+      <c r="K53" s="20">
         <v>1</v>
       </c>
       <c r="L53">
@@ -5465,46 +5468,46 @@
       <c r="N53">
         <v>0</v>
       </c>
-      <c r="O53" s="25">
+      <c r="O53" s="23">
         <v>0.01</v>
       </c>
-      <c r="P53" s="19">
+      <c r="P53" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q53" s="19">
-        <v>0</v>
-      </c>
-      <c r="R53" s="19">
-        <v>0</v>
-      </c>
-      <c r="S53" s="19">
+      <c r="Q53" s="17">
+        <v>0</v>
+      </c>
+      <c r="R53" s="17">
+        <v>0</v>
+      </c>
+      <c r="S53" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T53" s="19">
+      <c r="T53" s="17">
         <v>0.09</v>
       </c>
-      <c r="U53" s="19">
-        <v>0</v>
-      </c>
-      <c r="V53" s="19">
-        <v>0</v>
-      </c>
-      <c r="W53" s="19">
-        <v>0</v>
-      </c>
-      <c r="X53" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="26">
+      <c r="U53" s="17">
+        <v>0</v>
+      </c>
+      <c r="V53" s="17">
+        <v>0</v>
+      </c>
+      <c r="W53" s="17">
+        <v>0</v>
+      </c>
+      <c r="X53" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z53" s="26">
+      <c r="Z53" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA53" s="26">
+      <c r="AA53" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB53" s="26">
+      <c r="AB53" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -5512,10 +5515,10 @@
       <c r="A54" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="28">
+      <c r="B54" s="26">
         <v>0.15</v>
       </c>
-      <c r="C54" s="28">
+      <c r="C54" s="26">
         <v>0.15</v>
       </c>
       <c r="D54" s="8">
@@ -5539,7 +5542,7 @@
       <c r="J54" s="8">
         <v>0</v>
       </c>
-      <c r="K54" s="22">
+      <c r="K54" s="20">
         <v>0</v>
       </c>
       <c r="L54">
@@ -5551,46 +5554,46 @@
       <c r="N54">
         <v>0</v>
       </c>
-      <c r="O54" s="25">
+      <c r="O54" s="23">
         <v>0.01</v>
       </c>
-      <c r="P54" s="19">
+      <c r="P54" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q54" s="19">
-        <v>0</v>
-      </c>
-      <c r="R54" s="19">
-        <v>0</v>
-      </c>
-      <c r="S54" s="19">
+      <c r="Q54" s="17">
+        <v>0</v>
+      </c>
+      <c r="R54" s="17">
+        <v>0</v>
+      </c>
+      <c r="S54" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T54" s="19">
+      <c r="T54" s="17">
         <v>0.09</v>
       </c>
-      <c r="U54" s="19">
-        <v>0</v>
-      </c>
-      <c r="V54" s="19">
-        <v>0</v>
-      </c>
-      <c r="W54" s="19">
-        <v>0</v>
-      </c>
-      <c r="X54" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y54" s="26">
+      <c r="U54" s="17">
+        <v>0</v>
+      </c>
+      <c r="V54" s="17">
+        <v>0</v>
+      </c>
+      <c r="W54" s="17">
+        <v>0</v>
+      </c>
+      <c r="X54" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z54" s="26">
+      <c r="Z54" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA54" s="26">
+      <c r="AA54" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB54" s="26">
+      <c r="AB54" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -5598,10 +5601,10 @@
       <c r="A55" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="28">
+      <c r="B55" s="26">
         <v>0.25</v>
       </c>
-      <c r="C55" s="28">
+      <c r="C55" s="26">
         <v>0.25</v>
       </c>
       <c r="D55" s="8">
@@ -5625,7 +5628,7 @@
       <c r="J55" s="8">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="K55" s="22">
+      <c r="K55" s="20">
         <v>1</v>
       </c>
       <c r="L55">
@@ -5637,46 +5640,46 @@
       <c r="N55">
         <v>0</v>
       </c>
-      <c r="O55" s="25">
+      <c r="O55" s="23">
         <v>0.01</v>
       </c>
-      <c r="P55" s="19">
+      <c r="P55" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q55" s="19">
-        <v>0</v>
-      </c>
-      <c r="R55" s="19">
-        <v>0</v>
-      </c>
-      <c r="S55" s="19">
+      <c r="Q55" s="17">
+        <v>0</v>
+      </c>
+      <c r="R55" s="17">
+        <v>0</v>
+      </c>
+      <c r="S55" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T55" s="19">
+      <c r="T55" s="17">
         <v>0.09</v>
       </c>
-      <c r="U55" s="19">
-        <v>0</v>
-      </c>
-      <c r="V55" s="19">
-        <v>0</v>
-      </c>
-      <c r="W55" s="19">
-        <v>0</v>
-      </c>
-      <c r="X55" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y55" s="26">
+      <c r="U55" s="17">
+        <v>0</v>
+      </c>
+      <c r="V55" s="17">
+        <v>0</v>
+      </c>
+      <c r="W55" s="17">
+        <v>0</v>
+      </c>
+      <c r="X55" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z55" s="26">
+      <c r="Z55" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA55" s="26">
+      <c r="AA55" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB55" s="26">
+      <c r="AB55" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -5684,10 +5687,10 @@
       <c r="A56" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B56" s="28">
+      <c r="B56" s="26">
         <v>0.38700000000000001</v>
       </c>
-      <c r="C56" s="28">
+      <c r="C56" s="26">
         <v>0.38900000000000001</v>
       </c>
       <c r="D56" s="8">
@@ -5711,7 +5714,7 @@
       <c r="J56" s="8">
         <v>0</v>
       </c>
-      <c r="K56" s="22">
+      <c r="K56" s="20">
         <v>0</v>
       </c>
       <c r="L56">
@@ -5723,46 +5726,46 @@
       <c r="N56">
         <v>0</v>
       </c>
-      <c r="O56" s="25">
+      <c r="O56" s="23">
         <v>0.01</v>
       </c>
-      <c r="P56" s="19">
+      <c r="P56" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q56" s="19">
-        <v>0</v>
-      </c>
-      <c r="R56" s="19">
-        <v>0</v>
-      </c>
-      <c r="S56" s="19">
+      <c r="Q56" s="17">
+        <v>0</v>
+      </c>
+      <c r="R56" s="17">
+        <v>0</v>
+      </c>
+      <c r="S56" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T56" s="19">
+      <c r="T56" s="17">
         <v>0.09</v>
       </c>
-      <c r="U56" s="19">
-        <v>0</v>
-      </c>
-      <c r="V56" s="19">
-        <v>0</v>
-      </c>
-      <c r="W56" s="19">
-        <v>0</v>
-      </c>
-      <c r="X56" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y56" s="26">
+      <c r="U56" s="17">
+        <v>0</v>
+      </c>
+      <c r="V56" s="17">
+        <v>0</v>
+      </c>
+      <c r="W56" s="17">
+        <v>0</v>
+      </c>
+      <c r="X56" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z56" s="26">
+      <c r="Z56" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA56" s="26">
+      <c r="AA56" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB56" s="26">
+      <c r="AB56" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -5770,10 +5773,10 @@
       <c r="A57" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="28">
+      <c r="B57" s="26">
         <v>0.16500000000000001</v>
       </c>
-      <c r="C57" s="28">
+      <c r="C57" s="26">
         <v>0.16500000000000001</v>
       </c>
       <c r="D57" s="8">
@@ -5797,7 +5800,7 @@
       <c r="J57" s="8">
         <v>0.05</v>
       </c>
-      <c r="K57" s="22">
+      <c r="K57" s="20">
         <v>0</v>
       </c>
       <c r="L57">
@@ -5809,46 +5812,46 @@
       <c r="N57">
         <v>0</v>
       </c>
-      <c r="O57" s="25">
+      <c r="O57" s="23">
         <v>0.01</v>
       </c>
-      <c r="P57" s="19">
+      <c r="P57" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q57" s="19">
-        <v>0</v>
-      </c>
-      <c r="R57" s="19">
-        <v>0</v>
-      </c>
-      <c r="S57" s="19">
+      <c r="Q57" s="17">
+        <v>0</v>
+      </c>
+      <c r="R57" s="17">
+        <v>0</v>
+      </c>
+      <c r="S57" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T57" s="19">
+      <c r="T57" s="17">
         <v>0.09</v>
       </c>
-      <c r="U57" s="19">
-        <v>0</v>
-      </c>
-      <c r="V57" s="19">
-        <v>0</v>
-      </c>
-      <c r="W57" s="19">
-        <v>0</v>
-      </c>
-      <c r="X57" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y57" s="26">
+      <c r="U57" s="17">
+        <v>0</v>
+      </c>
+      <c r="V57" s="17">
+        <v>0</v>
+      </c>
+      <c r="W57" s="17">
+        <v>0</v>
+      </c>
+      <c r="X57" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z57" s="26">
+      <c r="Z57" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA57" s="26">
+      <c r="AA57" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB57" s="26">
+      <c r="AB57" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -5856,10 +5859,10 @@
       <c r="A58" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="28">
+      <c r="B58" s="26">
         <v>0.25</v>
       </c>
-      <c r="C58" s="28">
+      <c r="C58" s="26">
         <v>0.25</v>
       </c>
       <c r="D58" s="8">
@@ -5883,7 +5886,7 @@
       <c r="J58" s="8">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="K58" s="22">
+      <c r="K58" s="20">
         <v>0</v>
       </c>
       <c r="L58">
@@ -5895,46 +5898,46 @@
       <c r="N58">
         <v>0</v>
       </c>
-      <c r="O58" s="25">
+      <c r="O58" s="23">
         <v>0.01</v>
       </c>
-      <c r="P58" s="19">
+      <c r="P58" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q58" s="19">
-        <v>0</v>
-      </c>
-      <c r="R58" s="19">
-        <v>0</v>
-      </c>
-      <c r="S58" s="19">
+      <c r="Q58" s="17">
+        <v>0</v>
+      </c>
+      <c r="R58" s="17">
+        <v>0</v>
+      </c>
+      <c r="S58" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T58" s="19">
+      <c r="T58" s="17">
         <v>0.09</v>
       </c>
-      <c r="U58" s="19">
-        <v>0</v>
-      </c>
-      <c r="V58" s="19">
-        <v>0</v>
-      </c>
-      <c r="W58" s="19">
-        <v>0</v>
-      </c>
-      <c r="X58" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y58" s="26">
+      <c r="U58" s="17">
+        <v>0</v>
+      </c>
+      <c r="V58" s="17">
+        <v>0</v>
+      </c>
+      <c r="W58" s="17">
+        <v>0</v>
+      </c>
+      <c r="X58" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z58" s="26">
+      <c r="Z58" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA58" s="26">
+      <c r="AA58" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB58" s="26">
+      <c r="AB58" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -5942,10 +5945,10 @@
       <c r="A59" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="28">
+      <c r="B59" s="26">
         <v>0.25</v>
       </c>
-      <c r="C59" s="28">
+      <c r="C59" s="26">
         <v>0.25</v>
       </c>
       <c r="D59" s="8">
@@ -5969,7 +5972,7 @@
       <c r="J59" s="8">
         <v>0.1</v>
       </c>
-      <c r="K59" s="22">
+      <c r="K59" s="20">
         <v>1</v>
       </c>
       <c r="L59">
@@ -5981,46 +5984,46 @@
       <c r="N59">
         <v>0</v>
       </c>
-      <c r="O59" s="25">
+      <c r="O59" s="23">
         <v>0.01</v>
       </c>
-      <c r="P59" s="19">
+      <c r="P59" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q59" s="19">
-        <v>0</v>
-      </c>
-      <c r="R59" s="19">
-        <v>0</v>
-      </c>
-      <c r="S59" s="19">
+      <c r="Q59" s="17">
+        <v>0</v>
+      </c>
+      <c r="R59" s="17">
+        <v>0</v>
+      </c>
+      <c r="S59" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T59" s="19">
+      <c r="T59" s="17">
         <v>0.09</v>
       </c>
-      <c r="U59" s="19">
-        <v>0</v>
-      </c>
-      <c r="V59" s="19">
-        <v>0</v>
-      </c>
-      <c r="W59" s="19">
-        <v>0</v>
-      </c>
-      <c r="X59" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y59" s="26">
+      <c r="U59" s="17">
+        <v>0</v>
+      </c>
+      <c r="V59" s="17">
+        <v>0</v>
+      </c>
+      <c r="W59" s="17">
+        <v>0</v>
+      </c>
+      <c r="X59" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z59" s="26">
+      <c r="Z59" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA59" s="26">
+      <c r="AA59" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB59" s="26">
+      <c r="AB59" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -6028,10 +6031,10 @@
       <c r="A60" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="28">
+      <c r="B60" s="26">
         <v>0.27899999999999997</v>
       </c>
-      <c r="C60" s="28">
+      <c r="C60" s="26">
         <v>0.33299999999999996</v>
       </c>
       <c r="D60" s="8">
@@ -6055,7 +6058,7 @@
       <c r="J60" s="8">
         <v>0.09</v>
       </c>
-      <c r="K60" s="22">
+      <c r="K60" s="20">
         <v>1</v>
       </c>
       <c r="L60">
@@ -6067,46 +6070,46 @@
       <c r="N60">
         <v>0</v>
       </c>
-      <c r="O60" s="25">
+      <c r="O60" s="23">
         <v>0.01</v>
       </c>
-      <c r="P60" s="19">
+      <c r="P60" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q60" s="19">
-        <v>0</v>
-      </c>
-      <c r="R60" s="19">
-        <v>0</v>
-      </c>
-      <c r="S60" s="19">
+      <c r="Q60" s="17">
+        <v>0</v>
+      </c>
+      <c r="R60" s="17">
+        <v>0</v>
+      </c>
+      <c r="S60" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T60" s="19">
+      <c r="T60" s="17">
         <v>0.09</v>
       </c>
-      <c r="U60" s="19">
-        <v>0</v>
-      </c>
-      <c r="V60" s="19">
-        <v>0</v>
-      </c>
-      <c r="W60" s="19">
-        <v>0</v>
-      </c>
-      <c r="X60" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y60" s="26">
+      <c r="U60" s="17">
+        <v>0</v>
+      </c>
+      <c r="V60" s="17">
+        <v>0</v>
+      </c>
+      <c r="W60" s="17">
+        <v>0</v>
+      </c>
+      <c r="X60" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z60" s="26">
+      <c r="Z60" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA60" s="26">
+      <c r="AA60" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB60" s="26">
+      <c r="AB60" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -6114,10 +6117,10 @@
       <c r="A61" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="28">
+      <c r="B61" s="26">
         <v>0.192</v>
       </c>
-      <c r="C61" s="28">
+      <c r="C61" s="26">
         <v>0.14800000000000002</v>
       </c>
       <c r="D61" s="8">
@@ -6141,7 +6144,7 @@
       <c r="J61" s="8">
         <v>0.09</v>
       </c>
-      <c r="K61" s="22">
+      <c r="K61" s="20">
         <v>0</v>
       </c>
       <c r="L61">
@@ -6153,46 +6156,46 @@
       <c r="N61">
         <v>0</v>
       </c>
-      <c r="O61" s="25">
+      <c r="O61" s="23">
         <v>0.01</v>
       </c>
-      <c r="P61" s="19">
+      <c r="P61" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q61" s="19">
-        <v>0</v>
-      </c>
-      <c r="R61" s="19">
-        <v>0</v>
-      </c>
-      <c r="S61" s="19">
+      <c r="Q61" s="17">
+        <v>0</v>
+      </c>
+      <c r="R61" s="17">
+        <v>0</v>
+      </c>
+      <c r="S61" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T61" s="19">
+      <c r="T61" s="17">
         <v>0.09</v>
       </c>
-      <c r="U61" s="19">
-        <v>0</v>
-      </c>
-      <c r="V61" s="19">
-        <v>0</v>
-      </c>
-      <c r="W61" s="19">
-        <v>0</v>
-      </c>
-      <c r="X61" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="26">
+      <c r="U61" s="17">
+        <v>0</v>
+      </c>
+      <c r="V61" s="17">
+        <v>0</v>
+      </c>
+      <c r="W61" s="17">
+        <v>0</v>
+      </c>
+      <c r="X61" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z61" s="26">
+      <c r="Z61" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA61" s="26">
+      <c r="AA61" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB61" s="26">
+      <c r="AB61" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -6200,10 +6203,10 @@
       <c r="A62" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B62" s="28">
+      <c r="B62" s="26">
         <v>0.2</v>
       </c>
-      <c r="C62" s="28">
+      <c r="C62" s="26">
         <v>0.2</v>
       </c>
       <c r="D62" s="8">
@@ -6227,7 +6230,7 @@
       <c r="J62" s="8">
         <v>0</v>
       </c>
-      <c r="K62" s="22">
+      <c r="K62" s="20">
         <v>0</v>
       </c>
       <c r="L62">
@@ -6239,46 +6242,46 @@
       <c r="N62">
         <v>0</v>
       </c>
-      <c r="O62" s="25">
+      <c r="O62" s="23">
         <v>0.01</v>
       </c>
-      <c r="P62" s="19">
+      <c r="P62" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q62" s="19">
-        <v>0</v>
-      </c>
-      <c r="R62" s="19">
-        <v>0</v>
-      </c>
-      <c r="S62" s="19">
+      <c r="Q62" s="17">
+        <v>0</v>
+      </c>
+      <c r="R62" s="17">
+        <v>0</v>
+      </c>
+      <c r="S62" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T62" s="19">
+      <c r="T62" s="17">
         <v>0.09</v>
       </c>
-      <c r="U62" s="19">
-        <v>0</v>
-      </c>
-      <c r="V62" s="19">
-        <v>0</v>
-      </c>
-      <c r="W62" s="19">
-        <v>0</v>
-      </c>
-      <c r="X62" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y62" s="26">
+      <c r="U62" s="17">
+        <v>0</v>
+      </c>
+      <c r="V62" s="17">
+        <v>0</v>
+      </c>
+      <c r="W62" s="17">
+        <v>0</v>
+      </c>
+      <c r="X62" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z62" s="26">
+      <c r="Z62" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA62" s="26">
+      <c r="AA62" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB62" s="26">
+      <c r="AB62" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -6286,10 +6289,10 @@
       <c r="A63" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B63" s="29">
+      <c r="B63" s="27">
         <v>0.3</v>
       </c>
-      <c r="C63" s="29">
+      <c r="C63" s="27">
         <v>0.3</v>
       </c>
       <c r="D63" s="15">
@@ -6304,7 +6307,7 @@
       <c r="G63" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="H63" s="20">
+      <c r="H63" s="18">
         <v>0</v>
       </c>
       <c r="I63" s="8">
@@ -6313,7 +6316,7 @@
       <c r="J63" s="15">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="K63" s="23">
+      <c r="K63" s="21">
         <v>1</v>
       </c>
       <c r="L63">
@@ -6325,46 +6328,46 @@
       <c r="N63">
         <v>0</v>
       </c>
-      <c r="O63" s="25">
+      <c r="O63" s="23">
         <v>0.01</v>
       </c>
-      <c r="P63" s="19">
+      <c r="P63" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q63" s="19">
-        <v>0</v>
-      </c>
-      <c r="R63" s="19">
-        <v>0</v>
-      </c>
-      <c r="S63" s="19">
+      <c r="Q63" s="17">
+        <v>0</v>
+      </c>
+      <c r="R63" s="17">
+        <v>0</v>
+      </c>
+      <c r="S63" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T63" s="19">
+      <c r="T63" s="17">
         <v>0.09</v>
       </c>
-      <c r="U63" s="19">
-        <v>0</v>
-      </c>
-      <c r="V63" s="19">
-        <v>0</v>
-      </c>
-      <c r="W63" s="19">
-        <v>0</v>
-      </c>
-      <c r="X63" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y63" s="26">
+      <c r="U63" s="17">
+        <v>0</v>
+      </c>
+      <c r="V63" s="17">
+        <v>0</v>
+      </c>
+      <c r="W63" s="17">
+        <v>0</v>
+      </c>
+      <c r="X63" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z63" s="26">
+      <c r="Z63" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA63" s="26">
+      <c r="AA63" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB63" s="26">
+      <c r="AB63" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -6372,10 +6375,10 @@
       <c r="A64" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B64" s="28">
+      <c r="B64" s="26">
         <v>0.17</v>
       </c>
-      <c r="C64" s="28">
+      <c r="C64" s="26">
         <v>0.15</v>
       </c>
       <c r="D64" s="8">
@@ -6390,7 +6393,7 @@
       <c r="G64" t="s">
         <v>70</v>
       </c>
-      <c r="H64" s="20">
+      <c r="H64" s="18">
         <v>0</v>
       </c>
       <c r="I64" s="8">
@@ -6399,7 +6402,7 @@
       <c r="J64" s="8">
         <v>0</v>
       </c>
-      <c r="K64" s="24">
+      <c r="K64" s="22">
         <v>0</v>
       </c>
       <c r="L64">
@@ -6411,46 +6414,46 @@
       <c r="N64">
         <v>0</v>
       </c>
-      <c r="O64" s="25">
+      <c r="O64" s="23">
         <v>0.01</v>
       </c>
-      <c r="P64" s="19">
+      <c r="P64" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q64" s="19">
-        <v>0</v>
-      </c>
-      <c r="R64" s="19">
-        <v>0</v>
-      </c>
-      <c r="S64" s="19">
+      <c r="Q64" s="17">
+        <v>0</v>
+      </c>
+      <c r="R64" s="17">
+        <v>0</v>
+      </c>
+      <c r="S64" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T64" s="19">
+      <c r="T64" s="17">
         <v>0.09</v>
       </c>
-      <c r="U64" s="19">
-        <v>0</v>
-      </c>
-      <c r="V64" s="19">
-        <v>0</v>
-      </c>
-      <c r="W64" s="19">
-        <v>0</v>
-      </c>
-      <c r="X64" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y64" s="26">
+      <c r="U64" s="17">
+        <v>0</v>
+      </c>
+      <c r="V64" s="17">
+        <v>0</v>
+      </c>
+      <c r="W64" s="17">
+        <v>0</v>
+      </c>
+      <c r="X64" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z64" s="26">
+      <c r="Z64" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA64" s="26">
+      <c r="AA64" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB64" s="26">
+      <c r="AB64" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -6458,10 +6461,10 @@
       <c r="A65" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B65" s="28">
+      <c r="B65" s="26">
         <v>0.2</v>
       </c>
-      <c r="C65" s="28">
+      <c r="C65" s="26">
         <v>0.15</v>
       </c>
       <c r="D65" s="8">
@@ -6485,7 +6488,7 @@
       <c r="J65" s="8">
         <v>0.02</v>
       </c>
-      <c r="K65" s="24">
+      <c r="K65" s="22">
         <v>0</v>
       </c>
       <c r="L65">
@@ -6497,46 +6500,46 @@
       <c r="N65">
         <v>0</v>
       </c>
-      <c r="O65" s="25">
+      <c r="O65" s="23">
         <v>0.01</v>
       </c>
-      <c r="P65" s="19">
+      <c r="P65" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q65" s="19">
-        <v>0</v>
-      </c>
-      <c r="R65" s="19">
-        <v>0</v>
-      </c>
-      <c r="S65" s="19">
+      <c r="Q65" s="17">
+        <v>0</v>
+      </c>
+      <c r="R65" s="17">
+        <v>0</v>
+      </c>
+      <c r="S65" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T65" s="19">
+      <c r="T65" s="17">
         <v>0.09</v>
       </c>
-      <c r="U65" s="19">
-        <v>0</v>
-      </c>
-      <c r="V65" s="19">
-        <v>0</v>
-      </c>
-      <c r="W65" s="19">
-        <v>0</v>
-      </c>
-      <c r="X65" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y65" s="26">
+      <c r="U65" s="17">
+        <v>0</v>
+      </c>
+      <c r="V65" s="17">
+        <v>0</v>
+      </c>
+      <c r="W65" s="17">
+        <v>0</v>
+      </c>
+      <c r="X65" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z65" s="26">
+      <c r="Z65" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA65" s="26">
+      <c r="AA65" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB65" s="26">
+      <c r="AB65" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -6544,10 +6547,10 @@
       <c r="A66" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B66" s="28">
+      <c r="B66" s="26">
         <v>0.23100000000000001</v>
       </c>
-      <c r="C66" s="28">
+      <c r="C66" s="26">
         <v>0.23100000000000001</v>
       </c>
       <c r="D66" s="8">
@@ -6571,7 +6574,7 @@
       <c r="J66" s="8">
         <v>0</v>
       </c>
-      <c r="K66" s="24">
+      <c r="K66" s="22">
         <v>0</v>
       </c>
       <c r="L66">
@@ -6583,46 +6586,46 @@
       <c r="N66">
         <v>0</v>
       </c>
-      <c r="O66" s="25">
+      <c r="O66" s="23">
         <v>0.01</v>
       </c>
-      <c r="P66" s="19">
+      <c r="P66" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q66" s="19">
-        <v>0</v>
-      </c>
-      <c r="R66" s="19">
-        <v>0</v>
-      </c>
-      <c r="S66" s="19">
+      <c r="Q66" s="17">
+        <v>0</v>
+      </c>
+      <c r="R66" s="17">
+        <v>0</v>
+      </c>
+      <c r="S66" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T66" s="19">
+      <c r="T66" s="17">
         <v>0.09</v>
       </c>
-      <c r="U66" s="19">
-        <v>0</v>
-      </c>
-      <c r="V66" s="19">
-        <v>0</v>
-      </c>
-      <c r="W66" s="19">
-        <v>0</v>
-      </c>
-      <c r="X66" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y66" s="26">
+      <c r="U66" s="17">
+        <v>0</v>
+      </c>
+      <c r="V66" s="17">
+        <v>0</v>
+      </c>
+      <c r="W66" s="17">
+        <v>0</v>
+      </c>
+      <c r="X66" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z66" s="26">
+      <c r="Z66" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA66" s="26">
+      <c r="AA66" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB66" s="26">
+      <c r="AB66" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -6630,10 +6633,10 @@
       <c r="A67" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B67" s="28">
+      <c r="B67" s="26">
         <v>0.2</v>
       </c>
-      <c r="C67" s="28">
+      <c r="C67" s="26">
         <v>0.23</v>
       </c>
       <c r="D67" s="8">
@@ -6657,7 +6660,7 @@
       <c r="J67" s="8">
         <v>0.05</v>
       </c>
-      <c r="K67" s="24">
+      <c r="K67" s="22">
         <v>0</v>
       </c>
       <c r="L67">
@@ -6669,46 +6672,46 @@
       <c r="N67">
         <v>0</v>
       </c>
-      <c r="O67" s="25">
+      <c r="O67" s="23">
         <v>0.01</v>
       </c>
-      <c r="P67" s="19">
+      <c r="P67" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q67" s="19">
-        <v>0</v>
-      </c>
-      <c r="R67" s="19">
-        <v>0</v>
-      </c>
-      <c r="S67" s="19">
+      <c r="Q67" s="17">
+        <v>0</v>
+      </c>
+      <c r="R67" s="17">
+        <v>0</v>
+      </c>
+      <c r="S67" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T67" s="19">
+      <c r="T67" s="17">
         <v>0.09</v>
       </c>
-      <c r="U67" s="19">
-        <v>0</v>
-      </c>
-      <c r="V67" s="19">
-        <v>0</v>
-      </c>
-      <c r="W67" s="19">
-        <v>0</v>
-      </c>
-      <c r="X67" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y67" s="26">
+      <c r="U67" s="17">
+        <v>0</v>
+      </c>
+      <c r="V67" s="17">
+        <v>0</v>
+      </c>
+      <c r="W67" s="17">
+        <v>0</v>
+      </c>
+      <c r="X67" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z67" s="26">
+      <c r="Z67" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA67" s="26">
+      <c r="AA67" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB67" s="26">
+      <c r="AB67" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -6716,10 +6719,10 @@
       <c r="A68" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B68" s="28">
+      <c r="B68" s="26">
         <v>0.24</v>
       </c>
-      <c r="C68" s="28">
+      <c r="C68" s="26">
         <v>0.25</v>
       </c>
       <c r="D68" s="8">
@@ -6743,7 +6746,7 @@
       <c r="J68" s="8">
         <v>0.02</v>
       </c>
-      <c r="K68" s="22">
+      <c r="K68" s="20">
         <v>1</v>
       </c>
       <c r="L68">
@@ -6755,46 +6758,46 @@
       <c r="N68">
         <v>0</v>
       </c>
-      <c r="O68" s="25">
+      <c r="O68" s="23">
         <v>0.01</v>
       </c>
-      <c r="P68" s="19">
+      <c r="P68" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q68" s="19">
-        <v>0</v>
-      </c>
-      <c r="R68" s="19">
-        <v>0</v>
-      </c>
-      <c r="S68" s="19">
+      <c r="Q68" s="17">
+        <v>0</v>
+      </c>
+      <c r="R68" s="17">
+        <v>0</v>
+      </c>
+      <c r="S68" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T68" s="19">
+      <c r="T68" s="17">
         <v>0.09</v>
       </c>
-      <c r="U68" s="19">
-        <v>0</v>
-      </c>
-      <c r="V68" s="19">
-        <v>0</v>
-      </c>
-      <c r="W68" s="19">
-        <v>0</v>
-      </c>
-      <c r="X68" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y68" s="26">
+      <c r="U68" s="17">
+        <v>0</v>
+      </c>
+      <c r="V68" s="17">
+        <v>0</v>
+      </c>
+      <c r="W68" s="17">
+        <v>0</v>
+      </c>
+      <c r="X68" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z68" s="26">
+      <c r="Z68" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA68" s="26">
+      <c r="AA68" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB68" s="26">
+      <c r="AB68" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -6802,10 +6805,10 @@
       <c r="A69" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B69" s="28">
+      <c r="B69" s="26">
         <v>0.15</v>
       </c>
-      <c r="C69" s="28">
+      <c r="C69" s="26">
         <v>0.15</v>
       </c>
       <c r="D69" s="8">
@@ -6829,7 +6832,7 @@
       <c r="J69" s="8">
         <v>0.05</v>
       </c>
-      <c r="K69" s="22">
+      <c r="K69" s="20">
         <v>1</v>
       </c>
       <c r="L69">
@@ -6841,70 +6844,70 @@
       <c r="N69">
         <v>0</v>
       </c>
-      <c r="O69" s="25">
+      <c r="O69" s="23">
         <v>0.01</v>
       </c>
-      <c r="P69" s="19">
+      <c r="P69" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q69" s="19">
-        <v>0</v>
-      </c>
-      <c r="R69" s="19">
-        <v>0</v>
-      </c>
-      <c r="S69" s="19">
+      <c r="Q69" s="17">
+        <v>0</v>
+      </c>
+      <c r="R69" s="17">
+        <v>0</v>
+      </c>
+      <c r="S69" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T69" s="19">
+      <c r="T69" s="17">
         <v>0.09</v>
       </c>
-      <c r="U69" s="19">
-        <v>0</v>
-      </c>
-      <c r="V69" s="19">
-        <v>0</v>
-      </c>
-      <c r="W69" s="19">
-        <v>0</v>
-      </c>
-      <c r="X69" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y69" s="26">
+      <c r="U69" s="17">
+        <v>0</v>
+      </c>
+      <c r="V69" s="17">
+        <v>0</v>
+      </c>
+      <c r="W69" s="17">
+        <v>0</v>
+      </c>
+      <c r="X69" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z69" s="26">
+      <c r="Z69" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA69" s="26">
+      <c r="AA69" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB69" s="26">
+      <c r="AB69" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B70" s="28">
-        <v>0.31</v>
-      </c>
-      <c r="C70" s="28">
-        <v>0.3</v>
+        <v>150</v>
+      </c>
+      <c r="B70" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="C70" s="26">
+        <v>0.12</v>
       </c>
       <c r="D70" s="8">
-        <v>1.2999999999999999E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="E70" s="8">
-        <v>7.5999999999999998E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F70" s="8">
-        <v>0.33100000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="G70" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H70" s="2">
         <v>0</v>
@@ -6913,10 +6916,10 @@
         <v>0</v>
       </c>
       <c r="J70" s="8">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="K70" s="22">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K70" s="20">
+        <v>0</v>
       </c>
       <c r="L70">
         <v>0.5</v>
@@ -6927,70 +6930,70 @@
       <c r="N70">
         <v>0</v>
       </c>
-      <c r="O70" s="25">
+      <c r="O70" s="23">
         <v>0.01</v>
       </c>
-      <c r="P70" s="19">
+      <c r="P70" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q70" s="19">
-        <v>0</v>
-      </c>
-      <c r="R70" s="19">
-        <v>0</v>
-      </c>
-      <c r="S70" s="19">
+      <c r="Q70" s="17">
+        <v>0</v>
+      </c>
+      <c r="R70" s="17">
+        <v>0</v>
+      </c>
+      <c r="S70" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T70" s="19">
+      <c r="T70" s="17">
         <v>0.09</v>
       </c>
-      <c r="U70" s="19">
-        <v>0</v>
-      </c>
-      <c r="V70" s="19">
-        <v>0</v>
-      </c>
-      <c r="W70" s="19">
-        <v>0</v>
-      </c>
-      <c r="X70" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y70" s="26">
+      <c r="U70" s="17">
+        <v>0</v>
+      </c>
+      <c r="V70" s="17">
+        <v>0</v>
+      </c>
+      <c r="W70" s="17">
+        <v>0</v>
+      </c>
+      <c r="X70" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z70" s="26">
+      <c r="Z70" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA70" s="26">
+      <c r="AA70" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB70" s="26">
+      <c r="AB70" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B71" s="28">
-        <v>0.32</v>
-      </c>
-      <c r="C71" s="28">
-        <v>0.32</v>
+        <v>83</v>
+      </c>
+      <c r="B71" s="26">
+        <v>0.31</v>
+      </c>
+      <c r="C71" s="26">
+        <v>0.3</v>
       </c>
       <c r="D71" s="8">
-        <v>0.123</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="E71" s="8">
-        <v>0.1</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="F71" s="8">
-        <v>0.248</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="G71" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H71" s="2">
         <v>0</v>
@@ -6999,9 +7002,9 @@
         <v>0</v>
       </c>
       <c r="J71" s="8">
-        <v>0</v>
-      </c>
-      <c r="K71" s="22">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="K71" s="20">
         <v>1</v>
       </c>
       <c r="L71">
@@ -7013,82 +7016,82 @@
       <c r="N71">
         <v>0</v>
       </c>
-      <c r="O71" s="25">
+      <c r="O71" s="23">
         <v>0.01</v>
       </c>
-      <c r="P71" s="19">
+      <c r="P71" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q71" s="19">
-        <v>0</v>
-      </c>
-      <c r="R71" s="19">
-        <v>0</v>
-      </c>
-      <c r="S71" s="19">
+      <c r="Q71" s="17">
+        <v>0</v>
+      </c>
+      <c r="R71" s="17">
+        <v>0</v>
+      </c>
+      <c r="S71" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T71" s="19">
+      <c r="T71" s="17">
         <v>0.09</v>
       </c>
-      <c r="U71" s="19">
-        <v>0</v>
-      </c>
-      <c r="V71" s="19">
-        <v>0</v>
-      </c>
-      <c r="W71" s="19">
-        <v>0</v>
-      </c>
-      <c r="X71" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y71" s="26">
+      <c r="U71" s="17">
+        <v>0</v>
+      </c>
+      <c r="V71" s="17">
+        <v>0</v>
+      </c>
+      <c r="W71" s="17">
+        <v>0</v>
+      </c>
+      <c r="X71" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z71" s="26">
+      <c r="Z71" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA71" s="26">
+      <c r="AA71" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB71" s="26">
+      <c r="AB71" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B72" s="28">
-        <v>0.25</v>
-      </c>
-      <c r="C72" s="28">
-        <v>0.35</v>
+        <v>84</v>
+      </c>
+      <c r="B72" s="26">
+        <v>0.32</v>
+      </c>
+      <c r="C72" s="26">
+        <v>0.32</v>
       </c>
       <c r="D72" s="8">
-        <v>4.4999999999999998E-2</v>
+        <v>0.123</v>
       </c>
       <c r="E72" s="8">
         <v>0.1</v>
       </c>
       <c r="F72" s="8">
-        <v>0.252</v>
+        <v>0.248</v>
       </c>
       <c r="G72" t="s">
-        <v>70</v>
-      </c>
-      <c r="H72" s="8">
-        <v>1.4999999999999999E-2</v>
+        <v>72</v>
+      </c>
+      <c r="H72" s="2">
+        <v>0</v>
       </c>
       <c r="I72" s="8">
         <v>0</v>
       </c>
       <c r="J72" s="8">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="K72" s="22">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K72" s="20">
+        <v>1</v>
       </c>
       <c r="L72">
         <v>0.5</v>
@@ -7099,81 +7102,81 @@
       <c r="N72">
         <v>0</v>
       </c>
-      <c r="O72" s="25">
+      <c r="O72" s="23">
         <v>0.01</v>
       </c>
-      <c r="P72" s="19">
+      <c r="P72" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q72" s="19">
-        <v>0</v>
-      </c>
-      <c r="R72" s="19">
-        <v>0</v>
-      </c>
-      <c r="S72" s="19">
+      <c r="Q72" s="17">
+        <v>0</v>
+      </c>
+      <c r="R72" s="17">
+        <v>0</v>
+      </c>
+      <c r="S72" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T72" s="19">
+      <c r="T72" s="17">
         <v>0.09</v>
       </c>
-      <c r="U72" s="19">
-        <v>0</v>
-      </c>
-      <c r="V72" s="19">
-        <v>0</v>
-      </c>
-      <c r="W72" s="19">
-        <v>0</v>
-      </c>
-      <c r="X72" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y72" s="26">
+      <c r="U72" s="17">
+        <v>0</v>
+      </c>
+      <c r="V72" s="17">
+        <v>0</v>
+      </c>
+      <c r="W72" s="17">
+        <v>0</v>
+      </c>
+      <c r="X72" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z72" s="26">
+      <c r="Z72" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA72" s="26">
+      <c r="AA72" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB72" s="26">
+      <c r="AB72" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B73" s="28">
+        <v>85</v>
+      </c>
+      <c r="B73" s="26">
         <v>0.25</v>
       </c>
-      <c r="C73" s="28">
-        <v>2.75</v>
+      <c r="C73" s="26">
+        <v>0.35</v>
       </c>
       <c r="D73" s="8">
-        <v>0.01</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="E73" s="8">
-        <v>6.8000000000000005E-2</v>
+        <v>0.1</v>
       </c>
       <c r="F73" s="8">
-        <v>0.23899999999999999</v>
+        <v>0.252</v>
       </c>
       <c r="G73" t="s">
-        <v>71</v>
-      </c>
-      <c r="H73" s="2">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="H73" s="8">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I73" s="8">
         <v>0</v>
       </c>
       <c r="J73" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="K73" s="22">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K73" s="20">
         <v>0</v>
       </c>
       <c r="L73">
@@ -7185,70 +7188,70 @@
       <c r="N73">
         <v>0</v>
       </c>
-      <c r="O73" s="25">
+      <c r="O73" s="23">
         <v>0.01</v>
       </c>
-      <c r="P73" s="19">
+      <c r="P73" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q73" s="19">
-        <v>0</v>
-      </c>
-      <c r="R73" s="19">
-        <v>0</v>
-      </c>
-      <c r="S73" s="19">
+      <c r="Q73" s="17">
+        <v>0</v>
+      </c>
+      <c r="R73" s="17">
+        <v>0</v>
+      </c>
+      <c r="S73" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T73" s="19">
+      <c r="T73" s="17">
         <v>0.09</v>
       </c>
-      <c r="U73" s="19">
-        <v>0</v>
-      </c>
-      <c r="V73" s="19">
-        <v>0</v>
-      </c>
-      <c r="W73" s="19">
-        <v>0</v>
-      </c>
-      <c r="X73" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y73" s="26">
+      <c r="U73" s="17">
+        <v>0</v>
+      </c>
+      <c r="V73" s="17">
+        <v>0</v>
+      </c>
+      <c r="W73" s="17">
+        <v>0</v>
+      </c>
+      <c r="X73" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z73" s="26">
+      <c r="Z73" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA73" s="26">
+      <c r="AA73" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB73" s="26">
+      <c r="AB73" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B74" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="C74" s="28">
-        <v>0.1</v>
+        <v>86</v>
+      </c>
+      <c r="B74" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="C74" s="26">
+        <v>2.75</v>
       </c>
       <c r="D74" s="8">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="E74" s="8">
-        <v>3.3000000000000002E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="F74" s="8">
-        <v>0.159</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="G74" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H74" s="2">
         <v>0</v>
@@ -7257,9 +7260,9 @@
         <v>0</v>
       </c>
       <c r="J74" s="8">
-        <v>0</v>
-      </c>
-      <c r="K74" s="22">
+        <v>0.02</v>
+      </c>
+      <c r="K74" s="20">
         <v>0</v>
       </c>
       <c r="L74">
@@ -7271,67 +7274,67 @@
       <c r="N74">
         <v>0</v>
       </c>
-      <c r="O74" s="25">
+      <c r="O74" s="23">
         <v>0.01</v>
       </c>
-      <c r="P74" s="19">
+      <c r="P74" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q74" s="19">
-        <v>0</v>
-      </c>
-      <c r="R74" s="19">
-        <v>0</v>
-      </c>
-      <c r="S74" s="19">
+      <c r="Q74" s="17">
+        <v>0</v>
+      </c>
+      <c r="R74" s="17">
+        <v>0</v>
+      </c>
+      <c r="S74" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T74" s="19">
+      <c r="T74" s="17">
         <v>0.09</v>
       </c>
-      <c r="U74" s="19">
-        <v>0</v>
-      </c>
-      <c r="V74" s="19">
-        <v>0</v>
-      </c>
-      <c r="W74" s="19">
-        <v>0</v>
-      </c>
-      <c r="X74" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y74" s="26">
+      <c r="U74" s="17">
+        <v>0</v>
+      </c>
+      <c r="V74" s="17">
+        <v>0</v>
+      </c>
+      <c r="W74" s="17">
+        <v>0</v>
+      </c>
+      <c r="X74" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z74" s="26">
+      <c r="Z74" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA74" s="26">
+      <c r="AA74" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB74" s="26">
+      <c r="AB74" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B75" s="28">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="C75" s="28">
-        <v>0.3</v>
+        <v>87</v>
+      </c>
+      <c r="B75" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="C75" s="26">
+        <v>0.1</v>
       </c>
       <c r="D75" s="8">
-        <v>2.9000000000000001E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E75" s="8">
-        <v>4.5999999999999999E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="F75" s="8">
-        <v>0.2</v>
+        <v>0.159</v>
       </c>
       <c r="G75" t="s">
         <v>70</v>
@@ -7343,9 +7346,9 @@
         <v>0</v>
       </c>
       <c r="J75" s="8">
-        <v>0.03</v>
-      </c>
-      <c r="K75" s="22">
+        <v>0</v>
+      </c>
+      <c r="K75" s="20">
         <v>0</v>
       </c>
       <c r="L75">
@@ -7357,67 +7360,67 @@
       <c r="N75">
         <v>0</v>
       </c>
-      <c r="O75" s="25">
+      <c r="O75" s="23">
         <v>0.01</v>
       </c>
-      <c r="P75" s="19">
+      <c r="P75" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q75" s="19">
-        <v>0</v>
-      </c>
-      <c r="R75" s="19">
-        <v>0</v>
-      </c>
-      <c r="S75" s="19">
+      <c r="Q75" s="17">
+        <v>0</v>
+      </c>
+      <c r="R75" s="17">
+        <v>0</v>
+      </c>
+      <c r="S75" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T75" s="19">
+      <c r="T75" s="17">
         <v>0.09</v>
       </c>
-      <c r="U75" s="19">
-        <v>0</v>
-      </c>
-      <c r="V75" s="19">
-        <v>0</v>
-      </c>
-      <c r="W75" s="19">
-        <v>0</v>
-      </c>
-      <c r="X75" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y75" s="26">
+      <c r="U75" s="17">
+        <v>0</v>
+      </c>
+      <c r="V75" s="17">
+        <v>0</v>
+      </c>
+      <c r="W75" s="17">
+        <v>0</v>
+      </c>
+      <c r="X75" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z75" s="26">
+      <c r="Z75" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA75" s="26">
+      <c r="AA75" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB75" s="26">
+      <c r="AB75" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B76" s="28">
+        <v>88</v>
+      </c>
+      <c r="B76" s="26">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="C76" s="26">
         <v>0.3</v>
       </c>
-      <c r="C76" s="28">
-        <v>0.3</v>
-      </c>
       <c r="D76" s="8">
-        <v>3.1E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="E76" s="8">
-        <v>6.8000000000000005E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="F76" s="8">
-        <v>0.23899999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="G76" t="s">
         <v>70</v>
@@ -7429,10 +7432,10 @@
         <v>0</v>
       </c>
       <c r="J76" s="8">
-        <v>0</v>
-      </c>
-      <c r="K76" s="22">
-        <v>1</v>
+        <v>0.03</v>
+      </c>
+      <c r="K76" s="20">
+        <v>0</v>
       </c>
       <c r="L76">
         <v>0.5</v>
@@ -7443,67 +7446,67 @@
       <c r="N76">
         <v>0</v>
       </c>
-      <c r="O76" s="25">
+      <c r="O76" s="23">
         <v>0.01</v>
       </c>
-      <c r="P76" s="19">
+      <c r="P76" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q76" s="19">
-        <v>0</v>
-      </c>
-      <c r="R76" s="19">
-        <v>0</v>
-      </c>
-      <c r="S76" s="19">
+      <c r="Q76" s="17">
+        <v>0</v>
+      </c>
+      <c r="R76" s="17">
+        <v>0</v>
+      </c>
+      <c r="S76" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T76" s="19">
+      <c r="T76" s="17">
         <v>0.09</v>
       </c>
-      <c r="U76" s="19">
-        <v>0</v>
-      </c>
-      <c r="V76" s="19">
-        <v>0</v>
-      </c>
-      <c r="W76" s="19">
-        <v>0</v>
-      </c>
-      <c r="X76" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y76" s="26">
+      <c r="U76" s="17">
+        <v>0</v>
+      </c>
+      <c r="V76" s="17">
+        <v>0</v>
+      </c>
+      <c r="W76" s="17">
+        <v>0</v>
+      </c>
+      <c r="X76" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z76" s="26">
+      <c r="Z76" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA76" s="26">
+      <c r="AA76" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB76" s="26">
+      <c r="AB76" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B77" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="C77" s="28">
-        <v>0.1</v>
+        <v>89</v>
+      </c>
+      <c r="B77" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="C77" s="26">
+        <v>0.3</v>
       </c>
       <c r="D77" s="8">
-        <v>1.7000000000000001E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="E77" s="8">
-        <v>0.05</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="F77" s="8">
-        <v>0.19400000000000001</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="G77" t="s">
         <v>70</v>
@@ -7517,8 +7520,8 @@
       <c r="J77" s="8">
         <v>0</v>
       </c>
-      <c r="K77" s="22">
-        <v>0</v>
+      <c r="K77" s="20">
+        <v>1</v>
       </c>
       <c r="L77">
         <v>0.5</v>
@@ -7529,70 +7532,70 @@
       <c r="N77">
         <v>0</v>
       </c>
-      <c r="O77" s="25">
+      <c r="O77" s="23">
         <v>0.01</v>
       </c>
-      <c r="P77" s="19">
+      <c r="P77" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q77" s="19">
-        <v>0</v>
-      </c>
-      <c r="R77" s="19">
-        <v>0</v>
-      </c>
-      <c r="S77" s="19">
+      <c r="Q77" s="17">
+        <v>0</v>
+      </c>
+      <c r="R77" s="17">
+        <v>0</v>
+      </c>
+      <c r="S77" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T77" s="19">
+      <c r="T77" s="17">
         <v>0.09</v>
       </c>
-      <c r="U77" s="19">
-        <v>0</v>
-      </c>
-      <c r="V77" s="19">
-        <v>0</v>
-      </c>
-      <c r="W77" s="19">
-        <v>0</v>
-      </c>
-      <c r="X77" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y77" s="26">
+      <c r="U77" s="17">
+        <v>0</v>
+      </c>
+      <c r="V77" s="17">
+        <v>0</v>
+      </c>
+      <c r="W77" s="17">
+        <v>0</v>
+      </c>
+      <c r="X77" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z77" s="26">
+      <c r="Z77" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA77" s="26">
+      <c r="AA77" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB77" s="26">
+      <c r="AB77" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B78" s="28">
-        <v>0.16</v>
-      </c>
-      <c r="C78" s="28">
-        <v>0.16</v>
+        <v>90</v>
+      </c>
+      <c r="B78" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="C78" s="26">
+        <v>0.1</v>
       </c>
       <c r="D78" s="8">
-        <v>0.01</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="E78" s="8">
-        <v>3.4000000000000002E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F78" s="8">
-        <v>0.247</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="G78" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H78" s="2">
         <v>0</v>
@@ -7603,7 +7606,7 @@
       <c r="J78" s="8">
         <v>0</v>
       </c>
-      <c r="K78" s="22">
+      <c r="K78" s="20">
         <v>0</v>
       </c>
       <c r="L78">
@@ -7615,70 +7618,70 @@
       <c r="N78">
         <v>0</v>
       </c>
-      <c r="O78" s="25">
+      <c r="O78" s="23">
         <v>0.01</v>
       </c>
-      <c r="P78" s="19">
+      <c r="P78" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q78" s="19">
-        <v>0</v>
-      </c>
-      <c r="R78" s="19">
-        <v>0</v>
-      </c>
-      <c r="S78" s="19">
+      <c r="Q78" s="17">
+        <v>0</v>
+      </c>
+      <c r="R78" s="17">
+        <v>0</v>
+      </c>
+      <c r="S78" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T78" s="19">
+      <c r="T78" s="17">
         <v>0.09</v>
       </c>
-      <c r="U78" s="19">
-        <v>0</v>
-      </c>
-      <c r="V78" s="19">
-        <v>0</v>
-      </c>
-      <c r="W78" s="19">
-        <v>0</v>
-      </c>
-      <c r="X78" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y78" s="26">
+      <c r="U78" s="17">
+        <v>0</v>
+      </c>
+      <c r="V78" s="17">
+        <v>0</v>
+      </c>
+      <c r="W78" s="17">
+        <v>0</v>
+      </c>
+      <c r="X78" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y78" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z78" s="26">
+      <c r="Z78" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA78" s="26">
+      <c r="AA78" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB78" s="26">
+      <c r="AB78" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B79" s="28">
-        <v>0.3</v>
-      </c>
-      <c r="C79" s="28">
-        <v>0.3</v>
+        <v>91</v>
+      </c>
+      <c r="B79" s="26">
+        <v>0.16</v>
+      </c>
+      <c r="C79" s="26">
+        <v>0.16</v>
       </c>
       <c r="D79" s="8">
-        <v>3.5000000000000003E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E79" s="8">
-        <v>4.1000000000000002E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="F79" s="8">
-        <v>0.19700000000000001</v>
+        <v>0.247</v>
       </c>
       <c r="G79" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H79" s="2">
         <v>0</v>
@@ -7689,7 +7692,7 @@
       <c r="J79" s="8">
         <v>0</v>
       </c>
-      <c r="K79" s="22">
+      <c r="K79" s="20">
         <v>0</v>
       </c>
       <c r="L79">
@@ -7701,67 +7704,67 @@
       <c r="N79">
         <v>0</v>
       </c>
-      <c r="O79" s="25">
+      <c r="O79" s="23">
         <v>0.01</v>
       </c>
-      <c r="P79" s="19">
+      <c r="P79" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q79" s="19">
-        <v>0</v>
-      </c>
-      <c r="R79" s="19">
-        <v>0</v>
-      </c>
-      <c r="S79" s="19">
+      <c r="Q79" s="17">
+        <v>0</v>
+      </c>
+      <c r="R79" s="17">
+        <v>0</v>
+      </c>
+      <c r="S79" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T79" s="19">
+      <c r="T79" s="17">
         <v>0.09</v>
       </c>
-      <c r="U79" s="19">
-        <v>0</v>
-      </c>
-      <c r="V79" s="19">
-        <v>0</v>
-      </c>
-      <c r="W79" s="19">
-        <v>0</v>
-      </c>
-      <c r="X79" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y79" s="26">
+      <c r="U79" s="17">
+        <v>0</v>
+      </c>
+      <c r="V79" s="17">
+        <v>0</v>
+      </c>
+      <c r="W79" s="17">
+        <v>0</v>
+      </c>
+      <c r="X79" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y79" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z79" s="26">
+      <c r="Z79" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA79" s="26">
+      <c r="AA79" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB79" s="26">
+      <c r="AB79" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B80" s="28">
-        <v>0.2</v>
-      </c>
-      <c r="C80" s="28">
-        <v>0.2</v>
+        <v>92</v>
+      </c>
+      <c r="B80" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="C80" s="26">
+        <v>0.3</v>
       </c>
       <c r="D80" s="8">
-        <v>0.02</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="E80" s="8">
-        <v>0.05</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="F80" s="8">
-        <v>0.24299999999999999</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="G80" t="s">
         <v>70</v>
@@ -7775,7 +7778,7 @@
       <c r="J80" s="8">
         <v>0</v>
       </c>
-      <c r="K80" s="22">
+      <c r="K80" s="20">
         <v>0</v>
       </c>
       <c r="L80">
@@ -7787,81 +7790,81 @@
       <c r="N80">
         <v>0</v>
       </c>
-      <c r="O80" s="25">
+      <c r="O80" s="23">
         <v>0.01</v>
       </c>
-      <c r="P80" s="19">
+      <c r="P80" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q80" s="19">
-        <v>0</v>
-      </c>
-      <c r="R80" s="19">
-        <v>0</v>
-      </c>
-      <c r="S80" s="19">
+      <c r="Q80" s="17">
+        <v>0</v>
+      </c>
+      <c r="R80" s="17">
+        <v>0</v>
+      </c>
+      <c r="S80" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T80" s="19">
+      <c r="T80" s="17">
         <v>0.09</v>
       </c>
-      <c r="U80" s="19">
-        <v>0</v>
-      </c>
-      <c r="V80" s="19">
-        <v>0</v>
-      </c>
-      <c r="W80" s="19">
-        <v>0</v>
-      </c>
-      <c r="X80" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y80" s="26">
+      <c r="U80" s="17">
+        <v>0</v>
+      </c>
+      <c r="V80" s="17">
+        <v>0</v>
+      </c>
+      <c r="W80" s="17">
+        <v>0</v>
+      </c>
+      <c r="X80" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y80" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z80" s="26">
+      <c r="Z80" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA80" s="26">
+      <c r="AA80" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB80" s="26">
+      <c r="AB80" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B81" s="28">
-        <v>0.15</v>
-      </c>
-      <c r="C81" s="28">
-        <v>0.1</v>
+        <v>93</v>
+      </c>
+      <c r="B81" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="C81" s="26">
+        <v>0.2</v>
       </c>
       <c r="D81" s="8">
-        <v>1.9E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E81" s="8">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F81" s="8">
-        <v>0.14799999999999999</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="G81" t="s">
         <v>70</v>
       </c>
-      <c r="H81" s="8">
-        <v>4.0000000000000001E-3</v>
+      <c r="H81" s="2">
+        <v>0</v>
       </c>
       <c r="I81" s="8">
         <v>0</v>
       </c>
       <c r="J81" s="8">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="K81" s="22">
+        <v>0</v>
+      </c>
+      <c r="K81" s="20">
         <v>0</v>
       </c>
       <c r="L81">
@@ -7873,81 +7876,81 @@
       <c r="N81">
         <v>0</v>
       </c>
-      <c r="O81" s="25">
+      <c r="O81" s="23">
         <v>0.01</v>
       </c>
-      <c r="P81" s="19">
+      <c r="P81" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q81" s="19">
-        <v>0</v>
-      </c>
-      <c r="R81" s="19">
-        <v>0</v>
-      </c>
-      <c r="S81" s="19">
+      <c r="Q81" s="17">
+        <v>0</v>
+      </c>
+      <c r="R81" s="17">
+        <v>0</v>
+      </c>
+      <c r="S81" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T81" s="19">
+      <c r="T81" s="17">
         <v>0.09</v>
       </c>
-      <c r="U81" s="19">
-        <v>0</v>
-      </c>
-      <c r="V81" s="19">
-        <v>0</v>
-      </c>
-      <c r="W81" s="19">
-        <v>0</v>
-      </c>
-      <c r="X81" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y81" s="26">
+      <c r="U81" s="17">
+        <v>0</v>
+      </c>
+      <c r="V81" s="17">
+        <v>0</v>
+      </c>
+      <c r="W81" s="17">
+        <v>0</v>
+      </c>
+      <c r="X81" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z81" s="26">
+      <c r="Z81" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA81" s="26">
+      <c r="AA81" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB81" s="26">
+      <c r="AB81" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B82" s="28">
-        <v>0.3</v>
-      </c>
-      <c r="C82" s="28">
-        <v>0.35</v>
+        <v>94</v>
+      </c>
+      <c r="B82" s="26">
+        <v>0.15</v>
+      </c>
+      <c r="C82" s="26">
+        <v>0.1</v>
       </c>
       <c r="D82" s="8">
-        <v>0.10299999999999999</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E82" s="8">
-        <v>0.11</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F82" s="8">
-        <v>0.371</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="G82" t="s">
         <v>70</v>
       </c>
-      <c r="H82" s="2">
-        <v>0</v>
+      <c r="H82" s="8">
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="I82" s="8">
         <v>0</v>
       </c>
       <c r="J82" s="8">
-        <v>0</v>
-      </c>
-      <c r="K82" s="22">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K82" s="20">
         <v>0</v>
       </c>
       <c r="L82">
@@ -7959,70 +7962,70 @@
       <c r="N82">
         <v>0</v>
       </c>
-      <c r="O82" s="25">
+      <c r="O82" s="23">
         <v>0.01</v>
       </c>
-      <c r="P82" s="19">
+      <c r="P82" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q82" s="19">
-        <v>0</v>
-      </c>
-      <c r="R82" s="19">
-        <v>0</v>
-      </c>
-      <c r="S82" s="19">
+      <c r="Q82" s="17">
+        <v>0</v>
+      </c>
+      <c r="R82" s="17">
+        <v>0</v>
+      </c>
+      <c r="S82" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T82" s="19">
+      <c r="T82" s="17">
         <v>0.09</v>
       </c>
-      <c r="U82" s="19">
-        <v>0</v>
-      </c>
-      <c r="V82" s="19">
-        <v>0</v>
-      </c>
-      <c r="W82" s="19">
-        <v>0</v>
-      </c>
-      <c r="X82" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y82" s="26">
+      <c r="U82" s="17">
+        <v>0</v>
+      </c>
+      <c r="V82" s="17">
+        <v>0</v>
+      </c>
+      <c r="W82" s="17">
+        <v>0</v>
+      </c>
+      <c r="X82" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y82" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z82" s="26">
+      <c r="Z82" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA82" s="26">
+      <c r="AA82" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB82" s="26">
+      <c r="AB82" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B83" s="28">
-        <v>0.17</v>
-      </c>
-      <c r="C83" s="28">
-        <v>0.17</v>
+        <v>95</v>
+      </c>
+      <c r="B83" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="C83" s="26">
+        <v>0.35</v>
       </c>
       <c r="D83" s="8">
-        <v>2E-3</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="E83" s="8">
-        <v>3.1E-2</v>
+        <v>0.11</v>
       </c>
       <c r="F83" s="8">
-        <v>0.246</v>
+        <v>0.371</v>
       </c>
       <c r="G83" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H83" s="2">
         <v>0</v>
@@ -8031,10 +8034,10 @@
         <v>0</v>
       </c>
       <c r="J83" s="8">
-        <v>0.04</v>
-      </c>
-      <c r="K83" s="22">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K83" s="20">
+        <v>0</v>
       </c>
       <c r="L83">
         <v>0.5</v>
@@ -8045,70 +8048,70 @@
       <c r="N83">
         <v>0</v>
       </c>
-      <c r="O83" s="25">
+      <c r="O83" s="23">
         <v>0.01</v>
       </c>
-      <c r="P83" s="19">
+      <c r="P83" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q83" s="19">
-        <v>0</v>
-      </c>
-      <c r="R83" s="19">
-        <v>0</v>
-      </c>
-      <c r="S83" s="19">
+      <c r="Q83" s="17">
+        <v>0</v>
+      </c>
+      <c r="R83" s="17">
+        <v>0</v>
+      </c>
+      <c r="S83" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T83" s="19">
+      <c r="T83" s="17">
         <v>0.09</v>
       </c>
-      <c r="U83" s="19">
-        <v>0</v>
-      </c>
-      <c r="V83" s="19">
-        <v>0</v>
-      </c>
-      <c r="W83" s="19">
-        <v>0</v>
-      </c>
-      <c r="X83" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y83" s="26">
+      <c r="U83" s="17">
+        <v>0</v>
+      </c>
+      <c r="V83" s="17">
+        <v>0</v>
+      </c>
+      <c r="W83" s="17">
+        <v>0</v>
+      </c>
+      <c r="X83" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z83" s="26">
+      <c r="Z83" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA83" s="26">
+      <c r="AA83" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB83" s="26">
+      <c r="AB83" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B84" s="28">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C84" s="28">
-        <v>0.28000000000000003</v>
+        <v>96</v>
+      </c>
+      <c r="B84" s="26">
+        <v>0.17</v>
+      </c>
+      <c r="C84" s="26">
+        <v>0.17</v>
       </c>
       <c r="D84" s="8">
-        <v>5.3999999999999999E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="E84" s="8">
-        <v>0.05</v>
+        <v>3.1E-2</v>
       </c>
       <c r="F84" s="8">
-        <v>0.25</v>
+        <v>0.246</v>
       </c>
       <c r="G84" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H84" s="2">
         <v>0</v>
@@ -8117,9 +8120,9 @@
         <v>0</v>
       </c>
       <c r="J84" s="8">
-        <v>0</v>
-      </c>
-      <c r="K84" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="K84" s="20">
         <v>1</v>
       </c>
       <c r="L84">
@@ -8131,67 +8134,67 @@
       <c r="N84">
         <v>0</v>
       </c>
-      <c r="O84" s="25">
+      <c r="O84" s="23">
         <v>0.01</v>
       </c>
-      <c r="P84" s="19">
+      <c r="P84" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q84" s="19">
-        <v>0</v>
-      </c>
-      <c r="R84" s="19">
-        <v>0</v>
-      </c>
-      <c r="S84" s="19">
+      <c r="Q84" s="17">
+        <v>0</v>
+      </c>
+      <c r="R84" s="17">
+        <v>0</v>
+      </c>
+      <c r="S84" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T84" s="19">
+      <c r="T84" s="17">
         <v>0.09</v>
       </c>
-      <c r="U84" s="19">
-        <v>0</v>
-      </c>
-      <c r="V84" s="19">
-        <v>0</v>
-      </c>
-      <c r="W84" s="19">
-        <v>0</v>
-      </c>
-      <c r="X84" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y84" s="26">
+      <c r="U84" s="17">
+        <v>0</v>
+      </c>
+      <c r="V84" s="17">
+        <v>0</v>
+      </c>
+      <c r="W84" s="17">
+        <v>0</v>
+      </c>
+      <c r="X84" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z84" s="26">
+      <c r="Z84" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA84" s="26">
+      <c r="AA84" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB84" s="26">
+      <c r="AB84" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B85" s="28">
-        <v>0.3</v>
-      </c>
-      <c r="C85" s="28">
-        <v>0.3</v>
+        <v>97</v>
+      </c>
+      <c r="B85" s="26">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C85" s="26">
+        <v>0.28000000000000003</v>
       </c>
       <c r="D85" s="8">
-        <v>5.0999999999999997E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="E85" s="8">
         <v>0.05</v>
       </c>
       <c r="F85" s="8">
-        <v>0.253</v>
+        <v>0.25</v>
       </c>
       <c r="G85" t="s">
         <v>70</v>
@@ -8205,7 +8208,7 @@
       <c r="J85" s="8">
         <v>0</v>
       </c>
-      <c r="K85" s="22">
+      <c r="K85" s="20">
         <v>1</v>
       </c>
       <c r="L85">
@@ -8217,67 +8220,67 @@
       <c r="N85">
         <v>0</v>
       </c>
-      <c r="O85" s="25">
+      <c r="O85" s="23">
         <v>0.01</v>
       </c>
-      <c r="P85" s="19">
+      <c r="P85" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q85" s="19">
-        <v>0</v>
-      </c>
-      <c r="R85" s="19">
-        <v>0</v>
-      </c>
-      <c r="S85" s="19">
+      <c r="Q85" s="17">
+        <v>0</v>
+      </c>
+      <c r="R85" s="17">
+        <v>0</v>
+      </c>
+      <c r="S85" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T85" s="19">
+      <c r="T85" s="17">
         <v>0.09</v>
       </c>
-      <c r="U85" s="19">
-        <v>0</v>
-      </c>
-      <c r="V85" s="19">
-        <v>0</v>
-      </c>
-      <c r="W85" s="19">
-        <v>0</v>
-      </c>
-      <c r="X85" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y85" s="26">
+      <c r="U85" s="17">
+        <v>0</v>
+      </c>
+      <c r="V85" s="17">
+        <v>0</v>
+      </c>
+      <c r="W85" s="17">
+        <v>0</v>
+      </c>
+      <c r="X85" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z85" s="26">
+      <c r="Z85" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA85" s="26">
+      <c r="AA85" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB85" s="26">
+      <c r="AB85" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B86" s="28">
-        <v>0.2</v>
-      </c>
-      <c r="C86" s="28">
+        <v>98</v>
+      </c>
+      <c r="B86" s="26">
         <v>0.3</v>
       </c>
+      <c r="C86" s="26">
+        <v>0.3</v>
+      </c>
       <c r="D86" s="8">
-        <v>6.0000000000000001E-3</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="E86" s="8">
         <v>0.05</v>
       </c>
       <c r="F86" s="8">
-        <v>0.21</v>
+        <v>0.253</v>
       </c>
       <c r="G86" t="s">
         <v>70</v>
@@ -8291,7 +8294,7 @@
       <c r="J86" s="8">
         <v>0</v>
       </c>
-      <c r="K86" s="22">
+      <c r="K86" s="20">
         <v>1</v>
       </c>
       <c r="L86">
@@ -8303,67 +8306,67 @@
       <c r="N86">
         <v>0</v>
       </c>
-      <c r="O86" s="25">
+      <c r="O86" s="23">
         <v>0.01</v>
       </c>
-      <c r="P86" s="19">
+      <c r="P86" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q86" s="19">
-        <v>0</v>
-      </c>
-      <c r="R86" s="19">
-        <v>0</v>
-      </c>
-      <c r="S86" s="19">
+      <c r="Q86" s="17">
+        <v>0</v>
+      </c>
+      <c r="R86" s="17">
+        <v>0</v>
+      </c>
+      <c r="S86" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T86" s="19">
+      <c r="T86" s="17">
         <v>0.09</v>
       </c>
-      <c r="U86" s="19">
-        <v>0</v>
-      </c>
-      <c r="V86" s="19">
-        <v>0</v>
-      </c>
-      <c r="W86" s="19">
-        <v>0</v>
-      </c>
-      <c r="X86" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y86" s="26">
+      <c r="U86" s="17">
+        <v>0</v>
+      </c>
+      <c r="V86" s="17">
+        <v>0</v>
+      </c>
+      <c r="W86" s="17">
+        <v>0</v>
+      </c>
+      <c r="X86" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z86" s="26">
+      <c r="Z86" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA86" s="26">
+      <c r="AA86" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB86" s="26">
+      <c r="AB86" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B87" s="28">
+        <v>99</v>
+      </c>
+      <c r="B87" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="C87" s="26">
         <v>0.3</v>
       </c>
-      <c r="C87" s="28">
-        <v>0.25</v>
-      </c>
       <c r="D87" s="8">
-        <v>3.3000000000000002E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E87" s="8">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F87" s="8">
-        <v>0.249</v>
+        <v>0.21</v>
       </c>
       <c r="G87" t="s">
         <v>70</v>
@@ -8375,9 +8378,9 @@
         <v>0</v>
       </c>
       <c r="J87" s="8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K87" s="22">
+        <v>0</v>
+      </c>
+      <c r="K87" s="20">
         <v>1</v>
       </c>
       <c r="L87">
@@ -8389,67 +8392,67 @@
       <c r="N87">
         <v>0</v>
       </c>
-      <c r="O87" s="25">
+      <c r="O87" s="23">
         <v>0.01</v>
       </c>
-      <c r="P87" s="19">
+      <c r="P87" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q87" s="19">
-        <v>0</v>
-      </c>
-      <c r="R87" s="19">
-        <v>0</v>
-      </c>
-      <c r="S87" s="19">
+      <c r="Q87" s="17">
+        <v>0</v>
+      </c>
+      <c r="R87" s="17">
+        <v>0</v>
+      </c>
+      <c r="S87" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T87" s="19">
+      <c r="T87" s="17">
         <v>0.09</v>
       </c>
-      <c r="U87" s="19">
-        <v>0</v>
-      </c>
-      <c r="V87" s="19">
-        <v>0</v>
-      </c>
-      <c r="W87" s="19">
-        <v>0</v>
-      </c>
-      <c r="X87" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y87" s="26">
+      <c r="U87" s="17">
+        <v>0</v>
+      </c>
+      <c r="V87" s="17">
+        <v>0</v>
+      </c>
+      <c r="W87" s="17">
+        <v>0</v>
+      </c>
+      <c r="X87" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z87" s="26">
+      <c r="Z87" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA87" s="26">
+      <c r="AA87" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB87" s="26">
+      <c r="AB87" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B88" s="28">
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="C88" s="28">
+        <v>100</v>
+      </c>
+      <c r="B88" s="26">
         <v>0.3</v>
       </c>
+      <c r="C88" s="26">
+        <v>0.25</v>
+      </c>
       <c r="D88" s="8">
-        <v>5.1999999999999998E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="E88" s="8">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F88" s="8">
-        <v>0.20300000000000001</v>
+        <v>0.249</v>
       </c>
       <c r="G88" t="s">
         <v>70</v>
@@ -8461,10 +8464,10 @@
         <v>0</v>
       </c>
       <c r="J88" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="K88" s="22">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K88" s="20">
+        <v>1</v>
       </c>
       <c r="L88">
         <v>0.5</v>
@@ -8475,67 +8478,67 @@
       <c r="N88">
         <v>0</v>
       </c>
-      <c r="O88" s="25">
+      <c r="O88" s="23">
         <v>0.01</v>
       </c>
-      <c r="P88" s="19">
+      <c r="P88" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q88" s="19">
-        <v>0</v>
-      </c>
-      <c r="R88" s="19">
-        <v>0</v>
-      </c>
-      <c r="S88" s="19">
+      <c r="Q88" s="17">
+        <v>0</v>
+      </c>
+      <c r="R88" s="17">
+        <v>0</v>
+      </c>
+      <c r="S88" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T88" s="19">
+      <c r="T88" s="17">
         <v>0.09</v>
       </c>
-      <c r="U88" s="19">
-        <v>0</v>
-      </c>
-      <c r="V88" s="19">
-        <v>0</v>
-      </c>
-      <c r="W88" s="19">
-        <v>0</v>
-      </c>
-      <c r="X88" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y88" s="26">
+      <c r="U88" s="17">
+        <v>0</v>
+      </c>
+      <c r="V88" s="17">
+        <v>0</v>
+      </c>
+      <c r="W88" s="17">
+        <v>0</v>
+      </c>
+      <c r="X88" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z88" s="26">
+      <c r="Z88" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA88" s="26">
+      <c r="AA88" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB88" s="26">
+      <c r="AB88" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B89" s="28">
+        <v>101</v>
+      </c>
+      <c r="B89" s="26">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="C89" s="26">
         <v>0.3</v>
       </c>
-      <c r="C89" s="28">
-        <v>0.3</v>
-      </c>
       <c r="D89" s="8">
-        <v>4.5999999999999999E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E89" s="8">
         <v>0.05</v>
       </c>
       <c r="F89" s="8">
-        <v>0.29699999999999999</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="G89" t="s">
         <v>70</v>
@@ -8547,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="J89" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="K89" s="22">
-        <v>1</v>
+        <v>0.05</v>
+      </c>
+      <c r="K89" s="20">
+        <v>0</v>
       </c>
       <c r="L89">
         <v>0.5</v>
@@ -8561,67 +8564,67 @@
       <c r="N89">
         <v>0</v>
       </c>
-      <c r="O89" s="25">
+      <c r="O89" s="23">
         <v>0.01</v>
       </c>
-      <c r="P89" s="19">
+      <c r="P89" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q89" s="19">
-        <v>0</v>
-      </c>
-      <c r="R89" s="19">
-        <v>0</v>
-      </c>
-      <c r="S89" s="19">
+      <c r="Q89" s="17">
+        <v>0</v>
+      </c>
+      <c r="R89" s="17">
+        <v>0</v>
+      </c>
+      <c r="S89" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T89" s="19">
+      <c r="T89" s="17">
         <v>0.09</v>
       </c>
-      <c r="U89" s="19">
-        <v>0</v>
-      </c>
-      <c r="V89" s="19">
-        <v>0</v>
-      </c>
-      <c r="W89" s="19">
-        <v>0</v>
-      </c>
-      <c r="X89" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y89" s="26">
+      <c r="U89" s="17">
+        <v>0</v>
+      </c>
+      <c r="V89" s="17">
+        <v>0</v>
+      </c>
+      <c r="W89" s="17">
+        <v>0</v>
+      </c>
+      <c r="X89" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z89" s="26">
+      <c r="Z89" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA89" s="26">
+      <c r="AA89" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB89" s="26">
+      <c r="AB89" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B90" s="28">
-        <v>0.18</v>
-      </c>
-      <c r="C90" s="28">
-        <v>0.25</v>
+        <v>102</v>
+      </c>
+      <c r="B90" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="C90" s="26">
+        <v>0.3</v>
       </c>
       <c r="D90" s="8">
-        <v>0.216</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="E90" s="8">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="F90" s="8">
-        <v>0.372</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="G90" t="s">
         <v>70</v>
@@ -8633,10 +8636,10 @@
         <v>0</v>
       </c>
       <c r="J90" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="K90" s="22">
-        <v>0</v>
+        <v>0.02</v>
+      </c>
+      <c r="K90" s="20">
+        <v>1</v>
       </c>
       <c r="L90">
         <v>0.5</v>
@@ -8647,81 +8650,81 @@
       <c r="N90">
         <v>0</v>
       </c>
-      <c r="O90" s="25">
+      <c r="O90" s="23">
         <v>0.01</v>
       </c>
-      <c r="P90" s="19">
+      <c r="P90" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q90" s="19">
-        <v>0</v>
-      </c>
-      <c r="R90" s="19">
-        <v>0</v>
-      </c>
-      <c r="S90" s="19">
+      <c r="Q90" s="17">
+        <v>0</v>
+      </c>
+      <c r="R90" s="17">
+        <v>0</v>
+      </c>
+      <c r="S90" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T90" s="19">
+      <c r="T90" s="17">
         <v>0.09</v>
       </c>
-      <c r="U90" s="19">
-        <v>0</v>
-      </c>
-      <c r="V90" s="19">
-        <v>0</v>
-      </c>
-      <c r="W90" s="19">
-        <v>0</v>
-      </c>
-      <c r="X90" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y90" s="26">
+      <c r="U90" s="17">
+        <v>0</v>
+      </c>
+      <c r="V90" s="17">
+        <v>0</v>
+      </c>
+      <c r="W90" s="17">
+        <v>0</v>
+      </c>
+      <c r="X90" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y90" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z90" s="26">
+      <c r="Z90" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA90" s="26">
+      <c r="AA90" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB90" s="26">
+      <c r="AB90" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B91" s="28">
+        <v>103</v>
+      </c>
+      <c r="B91" s="26">
+        <v>0.18</v>
+      </c>
+      <c r="C91" s="26">
         <v>0.25</v>
       </c>
-      <c r="C91" s="28">
-        <v>0.25</v>
-      </c>
       <c r="D91" s="8">
-        <v>8.2000000000000003E-2</v>
+        <v>0.216</v>
       </c>
       <c r="E91" s="8">
-        <v>2.8000000000000001E-2</v>
+        <v>0.08</v>
       </c>
       <c r="F91" s="8">
-        <v>0.1</v>
+        <v>0.372</v>
       </c>
       <c r="G91" t="s">
-        <v>71</v>
-      </c>
-      <c r="H91" s="8">
-        <v>3.0000000000000001E-3</v>
+        <v>70</v>
+      </c>
+      <c r="H91" s="2">
+        <v>0</v>
       </c>
       <c r="I91" s="8">
         <v>0</v>
       </c>
       <c r="J91" s="8">
-        <v>0.04</v>
-      </c>
-      <c r="K91" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="K91" s="20">
         <v>0</v>
       </c>
       <c r="L91">
@@ -8733,81 +8736,81 @@
       <c r="N91">
         <v>0</v>
       </c>
-      <c r="O91" s="25">
+      <c r="O91" s="23">
         <v>0.01</v>
       </c>
-      <c r="P91" s="19">
+      <c r="P91" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q91" s="19">
-        <v>0</v>
-      </c>
-      <c r="R91" s="19">
-        <v>0</v>
-      </c>
-      <c r="S91" s="19">
+      <c r="Q91" s="17">
+        <v>0</v>
+      </c>
+      <c r="R91" s="17">
+        <v>0</v>
+      </c>
+      <c r="S91" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T91" s="19">
+      <c r="T91" s="17">
         <v>0.09</v>
       </c>
-      <c r="U91" s="19">
-        <v>0</v>
-      </c>
-      <c r="V91" s="19">
-        <v>0</v>
-      </c>
-      <c r="W91" s="19">
-        <v>0</v>
-      </c>
-      <c r="X91" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y91" s="26">
+      <c r="U91" s="17">
+        <v>0</v>
+      </c>
+      <c r="V91" s="17">
+        <v>0</v>
+      </c>
+      <c r="W91" s="17">
+        <v>0</v>
+      </c>
+      <c r="X91" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z91" s="26">
+      <c r="Z91" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA91" s="26">
+      <c r="AA91" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB91" s="26">
+      <c r="AB91" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B92" s="28">
-        <v>0.12</v>
-      </c>
-      <c r="C92" s="28">
-        <v>0.16300000000000001</v>
+        <v>104</v>
+      </c>
+      <c r="B92" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="C92" s="26">
+        <v>0.25</v>
       </c>
       <c r="D92" s="8">
-        <v>9.9000000000000005E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E92" s="8">
-        <v>0.05</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="F92" s="8">
-        <v>0.187</v>
+        <v>0.1</v>
       </c>
       <c r="G92" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H92" s="8">
-        <v>0.05</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="I92" s="8">
         <v>0</v>
       </c>
       <c r="J92" s="8">
-        <v>0</v>
-      </c>
-      <c r="K92" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="K92" s="20">
         <v>0</v>
       </c>
       <c r="L92">
@@ -8819,73 +8822,73 @@
       <c r="N92">
         <v>0</v>
       </c>
-      <c r="O92" s="25">
+      <c r="O92" s="23">
         <v>0.01</v>
       </c>
-      <c r="P92" s="19">
+      <c r="P92" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q92" s="19">
-        <v>0</v>
-      </c>
-      <c r="R92" s="19">
-        <v>0</v>
-      </c>
-      <c r="S92" s="19">
+      <c r="Q92" s="17">
+        <v>0</v>
+      </c>
+      <c r="R92" s="17">
+        <v>0</v>
+      </c>
+      <c r="S92" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T92" s="19">
+      <c r="T92" s="17">
         <v>0.09</v>
       </c>
-      <c r="U92" s="19">
-        <v>0</v>
-      </c>
-      <c r="V92" s="19">
-        <v>0</v>
-      </c>
-      <c r="W92" s="19">
-        <v>0</v>
-      </c>
-      <c r="X92" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y92" s="26">
+      <c r="U92" s="17">
+        <v>0</v>
+      </c>
+      <c r="V92" s="17">
+        <v>0</v>
+      </c>
+      <c r="W92" s="17">
+        <v>0</v>
+      </c>
+      <c r="X92" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z92" s="26">
+      <c r="Z92" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA92" s="26">
+      <c r="AA92" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB92" s="26">
+      <c r="AB92" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B93" s="28">
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="C93" s="28">
-        <v>0.34</v>
+        <v>105</v>
+      </c>
+      <c r="B93" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="C93" s="26">
+        <v>0.16300000000000001</v>
       </c>
       <c r="D93" s="8">
-        <v>6.09</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="E93" s="8">
-        <v>6.8000000000000005E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F93" s="8">
-        <v>0.23899999999999999</v>
+        <v>0.187</v>
       </c>
       <c r="G93" t="s">
-        <v>71</v>
-      </c>
-      <c r="H93" s="2">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="H93" s="8">
+        <v>0.05</v>
       </c>
       <c r="I93" s="8">
         <v>0</v>
@@ -8893,8 +8896,8 @@
       <c r="J93" s="8">
         <v>0</v>
       </c>
-      <c r="K93" s="22">
-        <v>1</v>
+      <c r="K93" s="20">
+        <v>0</v>
       </c>
       <c r="L93">
         <v>0.5</v>
@@ -8905,70 +8908,70 @@
       <c r="N93">
         <v>0</v>
       </c>
-      <c r="O93" s="25">
+      <c r="O93" s="23">
         <v>0.01</v>
       </c>
-      <c r="P93" s="19">
+      <c r="P93" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q93" s="19">
-        <v>0</v>
-      </c>
-      <c r="R93" s="19">
-        <v>0</v>
-      </c>
-      <c r="S93" s="19">
+      <c r="Q93" s="17">
+        <v>0</v>
+      </c>
+      <c r="R93" s="17">
+        <v>0</v>
+      </c>
+      <c r="S93" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T93" s="19">
+      <c r="T93" s="17">
         <v>0.09</v>
       </c>
-      <c r="U93" s="19">
-        <v>0</v>
-      </c>
-      <c r="V93" s="19">
-        <v>0</v>
-      </c>
-      <c r="W93" s="19">
-        <v>0</v>
-      </c>
-      <c r="X93" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y93" s="26">
+      <c r="U93" s="17">
+        <v>0</v>
+      </c>
+      <c r="V93" s="17">
+        <v>0</v>
+      </c>
+      <c r="W93" s="17">
+        <v>0</v>
+      </c>
+      <c r="X93" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z93" s="26">
+      <c r="Z93" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA93" s="26">
+      <c r="AA93" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB93" s="26">
+      <c r="AB93" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
     <row r="94" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B94" s="28">
-        <v>0.2</v>
-      </c>
-      <c r="C94" s="28">
-        <v>0.25</v>
+        <v>106</v>
+      </c>
+      <c r="B94" s="26">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="C94" s="26">
+        <v>0.34</v>
       </c>
       <c r="D94" s="8">
-        <v>2.9000000000000001E-2</v>
+        <v>6.09</v>
       </c>
       <c r="E94" s="8">
-        <v>3.4000000000000002E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="F94" s="8">
-        <v>0.251</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="G94" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H94" s="2">
         <v>0</v>
@@ -8977,10 +8980,10 @@
         <v>0</v>
       </c>
       <c r="J94" s="8">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="K94" s="22">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K94" s="20">
+        <v>1</v>
       </c>
       <c r="L94">
         <v>0.5</v>
@@ -8991,67 +8994,67 @@
       <c r="N94">
         <v>0</v>
       </c>
-      <c r="O94" s="25">
+      <c r="O94" s="23">
         <v>0.01</v>
       </c>
-      <c r="P94" s="19">
+      <c r="P94" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q94" s="19">
-        <v>0</v>
-      </c>
-      <c r="R94" s="19">
-        <v>0</v>
-      </c>
-      <c r="S94" s="19">
+      <c r="Q94" s="17">
+        <v>0</v>
+      </c>
+      <c r="R94" s="17">
+        <v>0</v>
+      </c>
+      <c r="S94" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T94" s="19">
+      <c r="T94" s="17">
         <v>0.09</v>
       </c>
-      <c r="U94" s="19">
-        <v>0</v>
-      </c>
-      <c r="V94" s="19">
-        <v>0</v>
-      </c>
-      <c r="W94" s="19">
-        <v>0</v>
-      </c>
-      <c r="X94" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y94" s="26">
+      <c r="U94" s="17">
+        <v>0</v>
+      </c>
+      <c r="V94" s="17">
+        <v>0</v>
+      </c>
+      <c r="W94" s="17">
+        <v>0</v>
+      </c>
+      <c r="X94" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z94" s="26">
+      <c r="Z94" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA94" s="26">
+      <c r="AA94" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB94" s="26">
+      <c r="AB94" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B95" s="28">
-        <v>0.35</v>
-      </c>
-      <c r="C95" s="28">
-        <v>0.35</v>
+        <v>107</v>
+      </c>
+      <c r="B95" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="C95" s="26">
+        <v>0.25</v>
       </c>
       <c r="D95" s="8">
-        <v>0.10100000000000001</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="E95" s="8">
-        <v>5.0999999999999997E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="F95" s="8">
-        <v>0.47299999999999998</v>
+        <v>0.251</v>
       </c>
       <c r="G95" t="s">
         <v>70</v>
@@ -9063,10 +9066,10 @@
         <v>0</v>
       </c>
       <c r="J95" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="K95" s="22">
-        <v>1</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K95" s="20">
+        <v>0</v>
       </c>
       <c r="L95">
         <v>0.5</v>
@@ -9077,46 +9080,132 @@
       <c r="N95">
         <v>0</v>
       </c>
-      <c r="O95" s="25">
+      <c r="O95" s="23">
         <v>0.01</v>
       </c>
-      <c r="P95" s="19">
+      <c r="P95" s="17">
         <v>0.4</v>
       </c>
-      <c r="Q95" s="19">
-        <v>0</v>
-      </c>
-      <c r="R95" s="19">
-        <v>0</v>
-      </c>
-      <c r="S95" s="19">
+      <c r="Q95" s="17">
+        <v>0</v>
+      </c>
+      <c r="R95" s="17">
+        <v>0</v>
+      </c>
+      <c r="S95" s="17">
         <v>0.20499999999999999</v>
       </c>
-      <c r="T95" s="19">
+      <c r="T95" s="17">
         <v>0.09</v>
       </c>
-      <c r="U95" s="19">
-        <v>0</v>
-      </c>
-      <c r="V95" s="19">
-        <v>0</v>
-      </c>
-      <c r="W95" s="19">
-        <v>0</v>
-      </c>
-      <c r="X95" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y95" s="26">
+      <c r="U95" s="17">
+        <v>0</v>
+      </c>
+      <c r="V95" s="17">
+        <v>0</v>
+      </c>
+      <c r="W95" s="17">
+        <v>0</v>
+      </c>
+      <c r="X95" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y95" s="24">
         <v>0.5244445973052001</v>
       </c>
-      <c r="Z95" s="26">
+      <c r="Z95" s="24">
         <v>0.28487590172827171</v>
       </c>
-      <c r="AA95" s="26">
+      <c r="AA95" s="24">
         <v>9.3198047669286986E-3</v>
       </c>
-      <c r="AB95" s="26">
+      <c r="AB95" s="24">
+        <v>0.18135969619959935</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B96" s="26">
+        <v>0.35</v>
+      </c>
+      <c r="C96" s="26">
+        <v>0.35</v>
+      </c>
+      <c r="D96" s="8">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="E96" s="8">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="F96" s="8">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="G96" t="s">
+        <v>70</v>
+      </c>
+      <c r="H96" s="2">
+        <v>0</v>
+      </c>
+      <c r="I96" s="8">
+        <v>0</v>
+      </c>
+      <c r="J96" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="K96" s="20">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>0.5</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="P96" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="Q96" s="17">
+        <v>0</v>
+      </c>
+      <c r="R96" s="17">
+        <v>0</v>
+      </c>
+      <c r="S96" s="17">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="T96" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="U96" s="17">
+        <v>0</v>
+      </c>
+      <c r="V96" s="17">
+        <v>0</v>
+      </c>
+      <c r="W96" s="17">
+        <v>0</v>
+      </c>
+      <c r="X96" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="24">
+        <v>0.5244445973052001</v>
+      </c>
+      <c r="Z96" s="24">
+        <v>0.28487590172827171</v>
+      </c>
+      <c r="AA96" s="24">
+        <v>9.3198047669286986E-3</v>
+      </c>
+      <c r="AB96" s="24">
         <v>0.18135969619959935</v>
       </c>
     </row>
@@ -9151,17 +9240,17 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="17"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="18"/>
+      <c r="F2" s="29"/>
       <c r="G2" s="5" t="s">
         <v>2</v>
       </c>
@@ -9189,12 +9278,12 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
